--- a/project/charts.xlsx
+++ b/project/charts.xlsx
@@ -4,14 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16180" tabRatio="500"/>
+    <workbookView xWindow="980" yWindow="0" windowWidth="25600" windowHeight="16180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="experimen1" sheetId="1" r:id="rId1"/>
+    <sheet name="experiment2" sheetId="2" r:id="rId2"/>
+    <sheet name="experiment3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="experimentOne" localSheetId="0">Sheet1!#REF!</definedName>
-    <definedName name="experimentOne_1" localSheetId="0">Sheet1!$A$1:$E$60</definedName>
+    <definedName name="experimentOne" localSheetId="0">experimen1!#REF!</definedName>
+    <definedName name="experimentOne_1" localSheetId="0">experimen1!$A$1:$E$60</definedName>
+    <definedName name="experimentThree" localSheetId="2">experiment3!$A$1:$D$150</definedName>
+    <definedName name="experimentThree_1" localSheetId="2">experiment3!$Q$1:$T$150</definedName>
+    <definedName name="experimentTwo" localSheetId="1">experiment2!$A$1:$B$5</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -42,11 +47,39 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="3" name="experimentThree.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:julestestard:Projects:git:courses:cse221:project:Memory:measurements:experimentThree.csv" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" name="experimentThree.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:julestestard:Projects:git:courses:cse221:project:Memory:measurements:experimentThree.csv" comma="1">
+      <textFields count="4">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="5" name="experimentTwo.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:julestestard:Projects:git:courses:cse221:project:Memory:measurements:experimentTwo.csv" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Stride16</t>
   </si>
@@ -58,6 +91,12 @@
   </si>
   <si>
     <t>Stride1024</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>one sample removed because it flukes the dataset.</t>
   </si>
 </sst>
 </file>
@@ -113,8 +152,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -132,19 +173,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -196,7 +239,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$K$4</c:f>
+              <c:f>experimen1!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -210,7 +253,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$J$5:$J$19</c:f>
+              <c:f>experimen1!$J$5:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -264,7 +307,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$5:$K$19</c:f>
+              <c:f>experimen1!$K$5:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -323,7 +366,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$L$4</c:f>
+              <c:f>experimen1!$L$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -337,7 +380,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$J$5:$J$19</c:f>
+              <c:f>experimen1!$J$5:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -391,7 +434,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$5:$L$19</c:f>
+              <c:f>experimen1!$L$5:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -450,7 +493,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$4</c:f>
+              <c:f>experimen1!$M$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -464,7 +507,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$J$5:$J$19</c:f>
+              <c:f>experimen1!$J$5:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -518,7 +561,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$5:$M$19</c:f>
+              <c:f>experimen1!$M$5:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -577,7 +620,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$4</c:f>
+              <c:f>experimen1!$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -591,7 +634,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$J$5:$J$19</c:f>
+              <c:f>experimen1!$J$5:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -645,7 +688,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$5:$N$19</c:f>
+              <c:f>experimen1!$N$5:$N$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -709,11 +752,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2136769256"/>
-        <c:axId val="-2136791656"/>
+        <c:axId val="-2134248872"/>
+        <c:axId val="-2138177272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2136769256"/>
+        <c:axId val="-2134248872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -747,7 +790,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136791656"/>
+        <c:crossAx val="-2138177272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -755,7 +798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136791656"/>
+        <c:axId val="-2138177272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -790,7 +833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136769256"/>
+        <c:crossAx val="-2134248872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -800,6 +843,598 @@
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1MBloadtime</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>experiment3!$T$1:$T$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="150"/>
+                <c:pt idx="0">
+                  <c:v>3417.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>728899.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>857986.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>823803.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>824804.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>821418.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>814559.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>884979.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>625681.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.631647E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.476456E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.154967E6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.55449E6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>663810.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.696623E6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.520172E6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.107951E6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.027223E6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.318649E6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>946554.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>586202.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>624871.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.964783E6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.323494E6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.728867E6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.047448E6</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.636474E6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>760968.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>676672.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>677700.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>690262.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.209854E6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>987383.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>836719.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>610819.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>552704.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>555801.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.106163E6</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>932926.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>478098.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.787851E6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>762890.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>915657.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.232919E6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.679421E6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.431848E6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.410966E6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>853230.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.5729E6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.385017E6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.482572E6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>453724.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.169045E6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>618725.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>596892.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>603678.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.216981E6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.451083E6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>829212.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>783513.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>638691.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>508087.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.207397E6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>719798.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.338426E6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.039317E6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.934092E6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.674522E6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.345953E6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.09958E6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.286157E6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.949717E6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.306237E6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.115388E6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.071612E6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.934503E6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.800429E6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.800292E6</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.253268E6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.546472E6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>498356.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.264549E6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>977461.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.066377E6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.989919E6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.574128E6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.667543E6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6.308013E6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.407985E6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.463872E6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6054.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3179.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2804.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3478.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2905.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2467.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3463.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1135.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1264.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>942.0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1140.0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1053.0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1135.0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>972.0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>922.0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>978.0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>885.0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>852.0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>943.0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>766.0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>951.0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>758.0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>801.0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>706.0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>983.0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>870.0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1139.0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>783.0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>811.0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>656.0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>800.0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>451.0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>697.0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>712.0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>628.0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>532.0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>659.0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>731.0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>689.0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>747.0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>772.0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>631.0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>538.0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>698.0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>872.0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>971.0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>794.0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>697.0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>547.0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>643.0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>505.0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>812.0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>574.0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>687.0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>532.0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>870.0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>543.0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>520.0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>994.0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>540.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2132381528"/>
+        <c:axId val="-2132763448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2132381528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>position</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> accessed in the array</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2132763448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2132763448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>load time in nanoseconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2132381528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -824,7 +1459,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -847,8 +1482,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="experimentOne_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="experimentTwo" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="experimentThree_1" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="experimentThree" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1175,8 +1857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="U27" sqref="U27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2454,4 +3136,4633 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>5454</v>
+      </c>
+      <c r="B1">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>5272</v>
+      </c>
+      <c r="B2">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>5652</v>
+      </c>
+      <c r="B3">
+        <v>3695</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>5531</v>
+      </c>
+      <c r="B4">
+        <v>3294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>5322</v>
+      </c>
+      <c r="B5">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <f>AVERAGE(A1:A5)</f>
+        <v>5446.2</v>
+      </c>
+      <c r="B6">
+        <f>AVERAGE(B1:B5)</f>
+        <v>3558.8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <f>STDEV(A1:A5)</f>
+        <v>154.4156727796761</v>
+      </c>
+      <c r="B7">
+        <f>STDEV(B1:B5)</f>
+        <v>175.53261805146073</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T150"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1">
+        <v>150</v>
+      </c>
+      <c r="B1">
+        <v>171028</v>
+      </c>
+      <c r="C1">
+        <v>66216</v>
+      </c>
+      <c r="D1">
+        <v>294881</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>150</v>
+      </c>
+      <c r="R1">
+        <v>171124</v>
+      </c>
+      <c r="S1">
+        <v>55684</v>
+      </c>
+      <c r="T1">
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2">
+        <v>150</v>
+      </c>
+      <c r="B2">
+        <v>171032</v>
+      </c>
+      <c r="C2">
+        <v>66216</v>
+      </c>
+      <c r="D2">
+        <v>437170</v>
+      </c>
+      <c r="E2">
+        <f>E1+1</f>
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>150</v>
+      </c>
+      <c r="R2">
+        <v>171128</v>
+      </c>
+      <c r="S2">
+        <v>55684</v>
+      </c>
+      <c r="T2">
+        <v>728899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3">
+        <v>150</v>
+      </c>
+      <c r="B3">
+        <v>171032</v>
+      </c>
+      <c r="C3">
+        <v>66216</v>
+      </c>
+      <c r="D3">
+        <v>505142</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E66" si="0">E2+1</f>
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(T1:T90)</f>
+        <v>1927761.7888888889</v>
+      </c>
+      <c r="Q3">
+        <v>150</v>
+      </c>
+      <c r="R3">
+        <v>171128</v>
+      </c>
+      <c r="S3">
+        <v>55684</v>
+      </c>
+      <c r="T3">
+        <v>857986</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>171032</v>
+      </c>
+      <c r="C4">
+        <v>66460</v>
+      </c>
+      <c r="D4">
+        <v>498114</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <f>AVERAGE(T91:T150)</f>
+        <v>1103.0166666666667</v>
+      </c>
+      <c r="Q4">
+        <v>150</v>
+      </c>
+      <c r="R4">
+        <v>171128</v>
+      </c>
+      <c r="S4">
+        <v>55684</v>
+      </c>
+      <c r="T4">
+        <v>823803</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5">
+        <v>150</v>
+      </c>
+      <c r="B5">
+        <v>171032</v>
+      </c>
+      <c r="C5">
+        <v>66460</v>
+      </c>
+      <c r="D5">
+        <v>481613</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>150</v>
+      </c>
+      <c r="R5">
+        <v>171128</v>
+      </c>
+      <c r="S5">
+        <v>55684</v>
+      </c>
+      <c r="T5">
+        <v>824804</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6">
+        <v>150</v>
+      </c>
+      <c r="B6">
+        <v>171032</v>
+      </c>
+      <c r="C6">
+        <v>66460</v>
+      </c>
+      <c r="D6">
+        <v>504109</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>150</v>
+      </c>
+      <c r="R6">
+        <v>171128</v>
+      </c>
+      <c r="S6">
+        <v>55932</v>
+      </c>
+      <c r="T6">
+        <v>821418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7">
+        <v>150</v>
+      </c>
+      <c r="B7">
+        <v>171032</v>
+      </c>
+      <c r="C7">
+        <v>66460</v>
+      </c>
+      <c r="D7">
+        <v>566477</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Q7">
+        <v>150</v>
+      </c>
+      <c r="R7">
+        <v>171128</v>
+      </c>
+      <c r="S7">
+        <v>55932</v>
+      </c>
+      <c r="T7">
+        <v>814559</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8">
+        <v>150</v>
+      </c>
+      <c r="B8">
+        <v>171032</v>
+      </c>
+      <c r="C8">
+        <v>66460</v>
+      </c>
+      <c r="D8">
+        <v>552065</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8">
+        <v>150</v>
+      </c>
+      <c r="R8">
+        <v>171128</v>
+      </c>
+      <c r="S8">
+        <v>55932</v>
+      </c>
+      <c r="T8">
+        <v>884979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <v>150</v>
+      </c>
+      <c r="B9">
+        <v>171032</v>
+      </c>
+      <c r="C9">
+        <v>66460</v>
+      </c>
+      <c r="D9">
+        <v>562759</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q9">
+        <v>150</v>
+      </c>
+      <c r="R9">
+        <v>171128</v>
+      </c>
+      <c r="S9">
+        <v>55932</v>
+      </c>
+      <c r="T9">
+        <v>625681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <v>150</v>
+      </c>
+      <c r="B10">
+        <v>171032</v>
+      </c>
+      <c r="C10">
+        <v>66460</v>
+      </c>
+      <c r="D10">
+        <v>467827</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>150</v>
+      </c>
+      <c r="R10">
+        <v>171128</v>
+      </c>
+      <c r="S10">
+        <v>55932</v>
+      </c>
+      <c r="T10">
+        <v>1631647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <v>150</v>
+      </c>
+      <c r="B11">
+        <v>171032</v>
+      </c>
+      <c r="C11">
+        <v>66460</v>
+      </c>
+      <c r="D11">
+        <v>496082</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Q11">
+        <v>150</v>
+      </c>
+      <c r="R11">
+        <v>171128</v>
+      </c>
+      <c r="S11">
+        <v>55932</v>
+      </c>
+      <c r="T11">
+        <v>2476456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <v>150</v>
+      </c>
+      <c r="B12">
+        <v>171032</v>
+      </c>
+      <c r="C12">
+        <v>66460</v>
+      </c>
+      <c r="D12">
+        <v>483741</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q12">
+        <v>150</v>
+      </c>
+      <c r="R12">
+        <v>171128</v>
+      </c>
+      <c r="S12">
+        <v>55932</v>
+      </c>
+      <c r="T12">
+        <v>1154967</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <v>150</v>
+      </c>
+      <c r="B13">
+        <v>171032</v>
+      </c>
+      <c r="C13">
+        <v>66460</v>
+      </c>
+      <c r="D13">
+        <v>577258</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Q13">
+        <v>150</v>
+      </c>
+      <c r="R13">
+        <v>171128</v>
+      </c>
+      <c r="S13">
+        <v>55932</v>
+      </c>
+      <c r="T13">
+        <v>2554490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <v>150</v>
+      </c>
+      <c r="B14">
+        <v>171032</v>
+      </c>
+      <c r="C14">
+        <v>66460</v>
+      </c>
+      <c r="D14">
+        <v>564294</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q14">
+        <v>150</v>
+      </c>
+      <c r="R14">
+        <v>171128</v>
+      </c>
+      <c r="S14">
+        <v>55932</v>
+      </c>
+      <c r="T14">
+        <v>663810</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <v>150</v>
+      </c>
+      <c r="B15">
+        <v>171032</v>
+      </c>
+      <c r="C15">
+        <v>66460</v>
+      </c>
+      <c r="D15">
+        <v>572396</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Q15">
+        <v>150</v>
+      </c>
+      <c r="R15">
+        <v>171128</v>
+      </c>
+      <c r="S15">
+        <v>55932</v>
+      </c>
+      <c r="T15">
+        <v>1696623</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <v>150</v>
+      </c>
+      <c r="B16">
+        <v>171032</v>
+      </c>
+      <c r="C16">
+        <v>66460</v>
+      </c>
+      <c r="D16">
+        <v>526566</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="Q16">
+        <v>150</v>
+      </c>
+      <c r="R16">
+        <v>171128</v>
+      </c>
+      <c r="S16">
+        <v>55932</v>
+      </c>
+      <c r="T16">
+        <v>2520172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17">
+        <v>150</v>
+      </c>
+      <c r="B17">
+        <v>171032</v>
+      </c>
+      <c r="C17">
+        <v>66460</v>
+      </c>
+      <c r="D17">
+        <v>548719</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="Q17">
+        <v>150</v>
+      </c>
+      <c r="R17">
+        <v>171128</v>
+      </c>
+      <c r="S17">
+        <v>55932</v>
+      </c>
+      <c r="T17">
+        <v>4107951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18">
+        <v>150</v>
+      </c>
+      <c r="B18">
+        <v>171032</v>
+      </c>
+      <c r="C18">
+        <v>66460</v>
+      </c>
+      <c r="D18">
+        <v>500645</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q18">
+        <v>150</v>
+      </c>
+      <c r="R18">
+        <v>171128</v>
+      </c>
+      <c r="S18">
+        <v>55932</v>
+      </c>
+      <c r="T18">
+        <v>2027223</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19">
+        <v>150</v>
+      </c>
+      <c r="B19">
+        <v>171032</v>
+      </c>
+      <c r="C19">
+        <v>66460</v>
+      </c>
+      <c r="D19">
+        <v>547828</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Q19">
+        <v>150</v>
+      </c>
+      <c r="R19">
+        <v>171128</v>
+      </c>
+      <c r="S19">
+        <v>55932</v>
+      </c>
+      <c r="T19">
+        <v>2318649</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20">
+        <v>150</v>
+      </c>
+      <c r="B20">
+        <v>171032</v>
+      </c>
+      <c r="C20">
+        <v>66460</v>
+      </c>
+      <c r="D20">
+        <v>577589</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="Q20">
+        <v>150</v>
+      </c>
+      <c r="R20">
+        <v>171128</v>
+      </c>
+      <c r="S20">
+        <v>55932</v>
+      </c>
+      <c r="T20">
+        <v>946554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21">
+        <v>150</v>
+      </c>
+      <c r="B21">
+        <v>171032</v>
+      </c>
+      <c r="C21">
+        <v>66460</v>
+      </c>
+      <c r="D21">
+        <v>513270</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Q21">
+        <v>150</v>
+      </c>
+      <c r="R21">
+        <v>171128</v>
+      </c>
+      <c r="S21">
+        <v>55932</v>
+      </c>
+      <c r="T21">
+        <v>586202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22">
+        <v>150</v>
+      </c>
+      <c r="B22">
+        <v>171032</v>
+      </c>
+      <c r="C22">
+        <v>66460</v>
+      </c>
+      <c r="D22">
+        <v>576566</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Q22">
+        <v>150</v>
+      </c>
+      <c r="R22">
+        <v>171128</v>
+      </c>
+      <c r="S22">
+        <v>55932</v>
+      </c>
+      <c r="T22">
+        <v>624871</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23">
+        <v>150</v>
+      </c>
+      <c r="B23">
+        <v>171032</v>
+      </c>
+      <c r="C23">
+        <v>66460</v>
+      </c>
+      <c r="D23">
+        <v>563829</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="Q23">
+        <v>150</v>
+      </c>
+      <c r="R23">
+        <v>171128</v>
+      </c>
+      <c r="S23">
+        <v>55932</v>
+      </c>
+      <c r="T23">
+        <v>1964783</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24">
+        <v>150</v>
+      </c>
+      <c r="B24">
+        <v>171032</v>
+      </c>
+      <c r="C24">
+        <v>66460</v>
+      </c>
+      <c r="D24">
+        <v>506565</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q24">
+        <v>150</v>
+      </c>
+      <c r="R24">
+        <v>171128</v>
+      </c>
+      <c r="S24">
+        <v>55932</v>
+      </c>
+      <c r="T24">
+        <v>2323494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25">
+        <v>150</v>
+      </c>
+      <c r="B25">
+        <v>171032</v>
+      </c>
+      <c r="C25">
+        <v>66460</v>
+      </c>
+      <c r="D25">
+        <v>499545</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q25">
+        <v>150</v>
+      </c>
+      <c r="R25">
+        <v>171128</v>
+      </c>
+      <c r="S25">
+        <v>55932</v>
+      </c>
+      <c r="T25">
+        <v>3728867</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26">
+        <v>150</v>
+      </c>
+      <c r="B26">
+        <v>171032</v>
+      </c>
+      <c r="C26">
+        <v>66460</v>
+      </c>
+      <c r="D26">
+        <v>576133</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="Q26">
+        <v>150</v>
+      </c>
+      <c r="R26">
+        <v>171128</v>
+      </c>
+      <c r="S26">
+        <v>55932</v>
+      </c>
+      <c r="T26">
+        <v>4047448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27">
+        <v>150</v>
+      </c>
+      <c r="B27">
+        <v>171032</v>
+      </c>
+      <c r="C27">
+        <v>66460</v>
+      </c>
+      <c r="D27">
+        <v>567165</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="Q27">
+        <v>150</v>
+      </c>
+      <c r="R27">
+        <v>171128</v>
+      </c>
+      <c r="S27">
+        <v>55932</v>
+      </c>
+      <c r="T27">
+        <v>2636474</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28">
+        <v>150</v>
+      </c>
+      <c r="B28">
+        <v>171032</v>
+      </c>
+      <c r="C28">
+        <v>66460</v>
+      </c>
+      <c r="D28">
+        <v>544966</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="Q28">
+        <v>150</v>
+      </c>
+      <c r="R28">
+        <v>171128</v>
+      </c>
+      <c r="S28">
+        <v>55932</v>
+      </c>
+      <c r="T28">
+        <v>760968</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29">
+        <v>150</v>
+      </c>
+      <c r="B29">
+        <v>171032</v>
+      </c>
+      <c r="C29">
+        <v>66460</v>
+      </c>
+      <c r="D29">
+        <v>552970</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="Q29">
+        <v>150</v>
+      </c>
+      <c r="R29">
+        <v>171128</v>
+      </c>
+      <c r="S29">
+        <v>55932</v>
+      </c>
+      <c r="T29">
+        <v>676672</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30">
+        <v>150</v>
+      </c>
+      <c r="B30">
+        <v>171032</v>
+      </c>
+      <c r="C30">
+        <v>66460</v>
+      </c>
+      <c r="D30">
+        <v>493649</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="Q30">
+        <v>150</v>
+      </c>
+      <c r="R30">
+        <v>171128</v>
+      </c>
+      <c r="S30">
+        <v>55932</v>
+      </c>
+      <c r="T30">
+        <v>677700</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31">
+        <v>150</v>
+      </c>
+      <c r="B31">
+        <v>171032</v>
+      </c>
+      <c r="C31">
+        <v>66460</v>
+      </c>
+      <c r="D31">
+        <v>460434</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="Q31">
+        <v>150</v>
+      </c>
+      <c r="R31">
+        <v>171128</v>
+      </c>
+      <c r="S31">
+        <v>55932</v>
+      </c>
+      <c r="T31">
+        <v>690262</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32">
+        <v>150</v>
+      </c>
+      <c r="B32">
+        <v>171032</v>
+      </c>
+      <c r="C32">
+        <v>66460</v>
+      </c>
+      <c r="D32">
+        <v>547713</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="Q32">
+        <v>150</v>
+      </c>
+      <c r="R32">
+        <v>171128</v>
+      </c>
+      <c r="S32">
+        <v>55932</v>
+      </c>
+      <c r="T32">
+        <v>1209854</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33">
+        <v>150</v>
+      </c>
+      <c r="B33">
+        <v>171032</v>
+      </c>
+      <c r="C33">
+        <v>66460</v>
+      </c>
+      <c r="D33">
+        <v>489196</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q33">
+        <v>150</v>
+      </c>
+      <c r="R33">
+        <v>171128</v>
+      </c>
+      <c r="S33">
+        <v>55932</v>
+      </c>
+      <c r="T33">
+        <v>987383</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34">
+        <v>150</v>
+      </c>
+      <c r="B34">
+        <v>171032</v>
+      </c>
+      <c r="C34">
+        <v>66460</v>
+      </c>
+      <c r="D34">
+        <v>560172</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="Q34">
+        <v>150</v>
+      </c>
+      <c r="R34">
+        <v>171128</v>
+      </c>
+      <c r="S34">
+        <v>55932</v>
+      </c>
+      <c r="T34">
+        <v>836719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35">
+        <v>150</v>
+      </c>
+      <c r="B35">
+        <v>171032</v>
+      </c>
+      <c r="C35">
+        <v>66460</v>
+      </c>
+      <c r="D35">
+        <v>482748</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="Q35">
+        <v>150</v>
+      </c>
+      <c r="R35">
+        <v>171128</v>
+      </c>
+      <c r="S35">
+        <v>55932</v>
+      </c>
+      <c r="T35">
+        <v>610819</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36">
+        <v>150</v>
+      </c>
+      <c r="B36">
+        <v>171032</v>
+      </c>
+      <c r="C36">
+        <v>66460</v>
+      </c>
+      <c r="D36">
+        <v>603842</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="Q36">
+        <v>150</v>
+      </c>
+      <c r="R36">
+        <v>171128</v>
+      </c>
+      <c r="S36">
+        <v>55932</v>
+      </c>
+      <c r="T36">
+        <v>552704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37">
+        <v>150</v>
+      </c>
+      <c r="B37">
+        <v>171032</v>
+      </c>
+      <c r="C37">
+        <v>66592</v>
+      </c>
+      <c r="D37">
+        <v>493931</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="Q37">
+        <v>150</v>
+      </c>
+      <c r="R37">
+        <v>171128</v>
+      </c>
+      <c r="S37">
+        <v>55932</v>
+      </c>
+      <c r="T37">
+        <v>555801</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38">
+        <v>150</v>
+      </c>
+      <c r="B38">
+        <v>171032</v>
+      </c>
+      <c r="C38">
+        <v>66592</v>
+      </c>
+      <c r="D38">
+        <v>424055</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="Q38">
+        <v>150</v>
+      </c>
+      <c r="R38">
+        <v>171128</v>
+      </c>
+      <c r="S38">
+        <v>55932</v>
+      </c>
+      <c r="T38">
+        <v>2106163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39">
+        <v>150</v>
+      </c>
+      <c r="B39">
+        <v>171032</v>
+      </c>
+      <c r="C39">
+        <v>66592</v>
+      </c>
+      <c r="D39">
+        <v>478073</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="Q39">
+        <v>150</v>
+      </c>
+      <c r="R39">
+        <v>171128</v>
+      </c>
+      <c r="S39">
+        <v>56064</v>
+      </c>
+      <c r="T39">
+        <v>932926</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40">
+        <v>150</v>
+      </c>
+      <c r="B40">
+        <v>171032</v>
+      </c>
+      <c r="C40">
+        <v>66592</v>
+      </c>
+      <c r="D40">
+        <v>434852</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="Q40">
+        <v>150</v>
+      </c>
+      <c r="R40">
+        <v>171128</v>
+      </c>
+      <c r="S40">
+        <v>56064</v>
+      </c>
+      <c r="T40">
+        <v>478098</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41">
+        <v>150</v>
+      </c>
+      <c r="B41">
+        <v>171032</v>
+      </c>
+      <c r="C41">
+        <v>66592</v>
+      </c>
+      <c r="D41">
+        <v>499553</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="Q41">
+        <v>150</v>
+      </c>
+      <c r="R41">
+        <v>171128</v>
+      </c>
+      <c r="S41">
+        <v>56064</v>
+      </c>
+      <c r="T41">
+        <v>1787851</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42">
+        <v>150</v>
+      </c>
+      <c r="B42">
+        <v>171032</v>
+      </c>
+      <c r="C42">
+        <v>66592</v>
+      </c>
+      <c r="D42">
+        <v>565327</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q42">
+        <v>150</v>
+      </c>
+      <c r="R42">
+        <v>171128</v>
+      </c>
+      <c r="S42">
+        <v>56064</v>
+      </c>
+      <c r="T42">
+        <v>762890</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
+      <c r="A43">
+        <v>150</v>
+      </c>
+      <c r="B43">
+        <v>171032</v>
+      </c>
+      <c r="C43">
+        <v>66592</v>
+      </c>
+      <c r="D43">
+        <v>562776</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="Q43">
+        <v>150</v>
+      </c>
+      <c r="R43">
+        <v>171128</v>
+      </c>
+      <c r="S43">
+        <v>56064</v>
+      </c>
+      <c r="T43">
+        <v>915657</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
+      <c r="A44">
+        <v>150</v>
+      </c>
+      <c r="B44">
+        <v>171032</v>
+      </c>
+      <c r="C44">
+        <v>66592</v>
+      </c>
+      <c r="D44">
+        <v>559550</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="Q44">
+        <v>150</v>
+      </c>
+      <c r="R44">
+        <v>171128</v>
+      </c>
+      <c r="S44">
+        <v>56064</v>
+      </c>
+      <c r="T44">
+        <v>2232919</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="A45">
+        <v>150</v>
+      </c>
+      <c r="B45">
+        <v>171032</v>
+      </c>
+      <c r="C45">
+        <v>66592</v>
+      </c>
+      <c r="D45">
+        <v>548026</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="Q45">
+        <v>150</v>
+      </c>
+      <c r="R45">
+        <v>171128</v>
+      </c>
+      <c r="S45">
+        <v>56064</v>
+      </c>
+      <c r="T45">
+        <v>2679421</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="A46">
+        <v>150</v>
+      </c>
+      <c r="B46">
+        <v>171032</v>
+      </c>
+      <c r="C46">
+        <v>66592</v>
+      </c>
+      <c r="D46">
+        <v>554471</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="Q46">
+        <v>150</v>
+      </c>
+      <c r="R46">
+        <v>171128</v>
+      </c>
+      <c r="S46">
+        <v>56064</v>
+      </c>
+      <c r="T46">
+        <v>2431848</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="A47">
+        <v>150</v>
+      </c>
+      <c r="B47">
+        <v>171032</v>
+      </c>
+      <c r="C47">
+        <v>66592</v>
+      </c>
+      <c r="D47">
+        <v>548803</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="Q47">
+        <v>150</v>
+      </c>
+      <c r="R47">
+        <v>171128</v>
+      </c>
+      <c r="S47">
+        <v>56064</v>
+      </c>
+      <c r="T47">
+        <v>2410966</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="A48">
+        <v>150</v>
+      </c>
+      <c r="B48">
+        <v>171032</v>
+      </c>
+      <c r="C48">
+        <v>66592</v>
+      </c>
+      <c r="D48">
+        <v>487256</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="Q48">
+        <v>150</v>
+      </c>
+      <c r="R48">
+        <v>171128</v>
+      </c>
+      <c r="S48">
+        <v>56064</v>
+      </c>
+      <c r="T48">
+        <v>853230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
+      <c r="A49">
+        <v>150</v>
+      </c>
+      <c r="B49">
+        <v>171032</v>
+      </c>
+      <c r="C49">
+        <v>66592</v>
+      </c>
+      <c r="D49">
+        <v>541278</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="Q49">
+        <v>150</v>
+      </c>
+      <c r="R49">
+        <v>171128</v>
+      </c>
+      <c r="S49">
+        <v>56064</v>
+      </c>
+      <c r="T49">
+        <v>8572900</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
+      <c r="A50">
+        <v>150</v>
+      </c>
+      <c r="B50">
+        <v>171032</v>
+      </c>
+      <c r="C50">
+        <v>66592</v>
+      </c>
+      <c r="D50">
+        <v>495551</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="Q50">
+        <v>150</v>
+      </c>
+      <c r="R50">
+        <v>171128</v>
+      </c>
+      <c r="S50">
+        <v>56064</v>
+      </c>
+      <c r="T50">
+        <v>1385017</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
+      <c r="A51">
+        <v>150</v>
+      </c>
+      <c r="B51">
+        <v>171032</v>
+      </c>
+      <c r="C51">
+        <v>66592</v>
+      </c>
+      <c r="D51">
+        <v>479352</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="Q51">
+        <v>150</v>
+      </c>
+      <c r="R51">
+        <v>171128</v>
+      </c>
+      <c r="S51">
+        <v>56064</v>
+      </c>
+      <c r="T51">
+        <v>1482572</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20">
+      <c r="A52">
+        <v>150</v>
+      </c>
+      <c r="B52">
+        <v>171032</v>
+      </c>
+      <c r="C52">
+        <v>66592</v>
+      </c>
+      <c r="D52">
+        <v>558408</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="Q52">
+        <v>150</v>
+      </c>
+      <c r="R52">
+        <v>171128</v>
+      </c>
+      <c r="S52">
+        <v>56064</v>
+      </c>
+      <c r="T52">
+        <v>453724</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20">
+      <c r="A53">
+        <v>150</v>
+      </c>
+      <c r="B53">
+        <v>171032</v>
+      </c>
+      <c r="C53">
+        <v>66592</v>
+      </c>
+      <c r="D53">
+        <v>487749</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="Q53">
+        <v>150</v>
+      </c>
+      <c r="R53">
+        <v>171128</v>
+      </c>
+      <c r="S53">
+        <v>56064</v>
+      </c>
+      <c r="T53">
+        <v>1169045</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20">
+      <c r="A54">
+        <v>150</v>
+      </c>
+      <c r="B54">
+        <v>171032</v>
+      </c>
+      <c r="C54">
+        <v>66592</v>
+      </c>
+      <c r="D54">
+        <v>502600</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="Q54">
+        <v>150</v>
+      </c>
+      <c r="R54">
+        <v>171128</v>
+      </c>
+      <c r="S54">
+        <v>56064</v>
+      </c>
+      <c r="T54">
+        <v>618725</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20">
+      <c r="A55">
+        <v>150</v>
+      </c>
+      <c r="B55">
+        <v>171032</v>
+      </c>
+      <c r="C55">
+        <v>66592</v>
+      </c>
+      <c r="D55">
+        <v>558936</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="Q55">
+        <v>150</v>
+      </c>
+      <c r="R55">
+        <v>171128</v>
+      </c>
+      <c r="S55">
+        <v>56064</v>
+      </c>
+      <c r="T55">
+        <v>596892</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20">
+      <c r="A56">
+        <v>150</v>
+      </c>
+      <c r="B56">
+        <v>171032</v>
+      </c>
+      <c r="C56">
+        <v>66592</v>
+      </c>
+      <c r="D56">
+        <v>544314</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="Q56">
+        <v>150</v>
+      </c>
+      <c r="R56">
+        <v>171128</v>
+      </c>
+      <c r="S56">
+        <v>56064</v>
+      </c>
+      <c r="T56">
+        <v>603678</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20">
+      <c r="A57">
+        <v>150</v>
+      </c>
+      <c r="B57">
+        <v>171032</v>
+      </c>
+      <c r="C57">
+        <v>66592</v>
+      </c>
+      <c r="D57">
+        <v>480158</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="Q57">
+        <v>150</v>
+      </c>
+      <c r="R57">
+        <v>171128</v>
+      </c>
+      <c r="S57">
+        <v>56064</v>
+      </c>
+      <c r="T57">
+        <v>1216981</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20">
+      <c r="A58">
+        <v>150</v>
+      </c>
+      <c r="B58">
+        <v>171032</v>
+      </c>
+      <c r="C58">
+        <v>66592</v>
+      </c>
+      <c r="D58">
+        <v>549541</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="Q58">
+        <v>150</v>
+      </c>
+      <c r="R58">
+        <v>171128</v>
+      </c>
+      <c r="S58">
+        <v>56064</v>
+      </c>
+      <c r="T58">
+        <v>1451083</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
+      <c r="A59">
+        <v>150</v>
+      </c>
+      <c r="B59">
+        <v>171032</v>
+      </c>
+      <c r="C59">
+        <v>66592</v>
+      </c>
+      <c r="D59">
+        <v>338692</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="Q59">
+        <v>150</v>
+      </c>
+      <c r="R59">
+        <v>171128</v>
+      </c>
+      <c r="S59">
+        <v>56064</v>
+      </c>
+      <c r="T59">
+        <v>829212</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
+      <c r="A60">
+        <v>150</v>
+      </c>
+      <c r="B60">
+        <v>171032</v>
+      </c>
+      <c r="C60">
+        <v>66592</v>
+      </c>
+      <c r="D60">
+        <v>550751</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="Q60">
+        <v>150</v>
+      </c>
+      <c r="R60">
+        <v>171128</v>
+      </c>
+      <c r="S60">
+        <v>56064</v>
+      </c>
+      <c r="T60">
+        <v>783513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
+      <c r="A61">
+        <v>150</v>
+      </c>
+      <c r="B61">
+        <v>171032</v>
+      </c>
+      <c r="C61">
+        <v>66592</v>
+      </c>
+      <c r="D61">
+        <v>569571</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="Q61">
+        <v>150</v>
+      </c>
+      <c r="R61">
+        <v>171128</v>
+      </c>
+      <c r="S61">
+        <v>56064</v>
+      </c>
+      <c r="T61">
+        <v>638691</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20">
+      <c r="A62">
+        <v>150</v>
+      </c>
+      <c r="B62">
+        <v>171032</v>
+      </c>
+      <c r="C62">
+        <v>66592</v>
+      </c>
+      <c r="D62">
+        <v>475027</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="Q62">
+        <v>150</v>
+      </c>
+      <c r="R62">
+        <v>171128</v>
+      </c>
+      <c r="S62">
+        <v>56064</v>
+      </c>
+      <c r="T62">
+        <v>508087</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
+      <c r="A63">
+        <v>150</v>
+      </c>
+      <c r="B63">
+        <v>171032</v>
+      </c>
+      <c r="C63">
+        <v>66592</v>
+      </c>
+      <c r="D63">
+        <v>547383</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="Q63">
+        <v>150</v>
+      </c>
+      <c r="R63">
+        <v>171128</v>
+      </c>
+      <c r="S63">
+        <v>56064</v>
+      </c>
+      <c r="T63">
+        <v>1207397</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
+      <c r="A64">
+        <v>150</v>
+      </c>
+      <c r="B64">
+        <v>171032</v>
+      </c>
+      <c r="C64">
+        <v>66592</v>
+      </c>
+      <c r="D64">
+        <v>527011</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="Q64">
+        <v>150</v>
+      </c>
+      <c r="R64">
+        <v>171128</v>
+      </c>
+      <c r="S64">
+        <v>56064</v>
+      </c>
+      <c r="T64">
+        <v>719798</v>
+      </c>
+    </row>
+    <row r="65" spans="1:20">
+      <c r="A65">
+        <v>150</v>
+      </c>
+      <c r="B65">
+        <v>171032</v>
+      </c>
+      <c r="C65">
+        <v>66592</v>
+      </c>
+      <c r="D65">
+        <v>560421</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="Q65">
+        <v>150</v>
+      </c>
+      <c r="R65">
+        <v>171128</v>
+      </c>
+      <c r="S65">
+        <v>56064</v>
+      </c>
+      <c r="T65">
+        <v>2338426</v>
+      </c>
+    </row>
+    <row r="66" spans="1:20">
+      <c r="A66">
+        <v>150</v>
+      </c>
+      <c r="B66">
+        <v>171032</v>
+      </c>
+      <c r="C66">
+        <v>66592</v>
+      </c>
+      <c r="D66">
+        <v>239889</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="Q66">
+        <v>150</v>
+      </c>
+      <c r="R66">
+        <v>171128</v>
+      </c>
+      <c r="S66">
+        <v>56064</v>
+      </c>
+      <c r="T66">
+        <v>2039317</v>
+      </c>
+    </row>
+    <row r="67" spans="1:20">
+      <c r="A67">
+        <v>150</v>
+      </c>
+      <c r="B67">
+        <v>171032</v>
+      </c>
+      <c r="C67">
+        <v>66592</v>
+      </c>
+      <c r="D67">
+        <v>210119</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:E130" si="1">E66+1</f>
+        <v>67</v>
+      </c>
+      <c r="Q67">
+        <v>150</v>
+      </c>
+      <c r="R67">
+        <v>171128</v>
+      </c>
+      <c r="S67">
+        <v>56064</v>
+      </c>
+      <c r="T67">
+        <v>2934092</v>
+      </c>
+    </row>
+    <row r="68" spans="1:20">
+      <c r="A68">
+        <v>150</v>
+      </c>
+      <c r="B68">
+        <v>171032</v>
+      </c>
+      <c r="C68">
+        <v>66592</v>
+      </c>
+      <c r="D68">
+        <v>673426</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="Q68">
+        <v>150</v>
+      </c>
+      <c r="R68">
+        <v>171128</v>
+      </c>
+      <c r="S68">
+        <v>56064</v>
+      </c>
+      <c r="T68">
+        <v>8674522</v>
+      </c>
+    </row>
+    <row r="69" spans="1:20">
+      <c r="A69">
+        <v>150</v>
+      </c>
+      <c r="B69">
+        <v>171032</v>
+      </c>
+      <c r="C69">
+        <v>66592</v>
+      </c>
+      <c r="D69">
+        <v>634722</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="Q69">
+        <v>150</v>
+      </c>
+      <c r="R69">
+        <v>171128</v>
+      </c>
+      <c r="S69">
+        <v>56064</v>
+      </c>
+      <c r="T69">
+        <v>1345953</v>
+      </c>
+    </row>
+    <row r="70" spans="1:20">
+      <c r="A70">
+        <v>150</v>
+      </c>
+      <c r="B70">
+        <v>171032</v>
+      </c>
+      <c r="C70">
+        <v>66724</v>
+      </c>
+      <c r="D70">
+        <v>538761</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="Q70">
+        <v>150</v>
+      </c>
+      <c r="R70">
+        <v>171128</v>
+      </c>
+      <c r="S70">
+        <v>56064</v>
+      </c>
+      <c r="T70">
+        <v>3099580</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
+      <c r="A71">
+        <v>150</v>
+      </c>
+      <c r="B71">
+        <v>171032</v>
+      </c>
+      <c r="C71">
+        <v>66724</v>
+      </c>
+      <c r="D71">
+        <v>535066</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="Q71">
+        <v>150</v>
+      </c>
+      <c r="R71">
+        <v>171128</v>
+      </c>
+      <c r="S71">
+        <v>56064</v>
+      </c>
+      <c r="T71">
+        <v>3286157</v>
+      </c>
+    </row>
+    <row r="72" spans="1:20">
+      <c r="A72">
+        <v>150</v>
+      </c>
+      <c r="B72">
+        <v>171032</v>
+      </c>
+      <c r="C72">
+        <v>66724</v>
+      </c>
+      <c r="D72">
+        <v>477298</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="Q72">
+        <v>150</v>
+      </c>
+      <c r="R72">
+        <v>171128</v>
+      </c>
+      <c r="S72">
+        <v>56196</v>
+      </c>
+      <c r="T72">
+        <v>2949717</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20">
+      <c r="A73">
+        <v>150</v>
+      </c>
+      <c r="B73">
+        <v>171032</v>
+      </c>
+      <c r="C73">
+        <v>66724</v>
+      </c>
+      <c r="D73">
+        <v>243368</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="Q73">
+        <v>150</v>
+      </c>
+      <c r="R73">
+        <v>171128</v>
+      </c>
+      <c r="S73">
+        <v>56196</v>
+      </c>
+      <c r="T73">
+        <v>4306237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20">
+      <c r="A74">
+        <v>150</v>
+      </c>
+      <c r="B74">
+        <v>171032</v>
+      </c>
+      <c r="C74">
+        <v>66724</v>
+      </c>
+      <c r="D74">
+        <v>281216</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="Q74">
+        <v>150</v>
+      </c>
+      <c r="R74">
+        <v>171128</v>
+      </c>
+      <c r="S74">
+        <v>56196</v>
+      </c>
+      <c r="T74">
+        <v>1115388</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20">
+      <c r="A75">
+        <v>150</v>
+      </c>
+      <c r="B75">
+        <v>171032</v>
+      </c>
+      <c r="C75">
+        <v>66724</v>
+      </c>
+      <c r="D75">
+        <v>524713</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="Q75">
+        <v>150</v>
+      </c>
+      <c r="R75">
+        <v>171128</v>
+      </c>
+      <c r="S75">
+        <v>56196</v>
+      </c>
+      <c r="T75">
+        <v>1071612</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20">
+      <c r="A76">
+        <v>150</v>
+      </c>
+      <c r="B76">
+        <v>171032</v>
+      </c>
+      <c r="C76">
+        <v>66724</v>
+      </c>
+      <c r="D76">
+        <v>541573</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="Q76">
+        <v>150</v>
+      </c>
+      <c r="R76">
+        <v>171128</v>
+      </c>
+      <c r="S76">
+        <v>56196</v>
+      </c>
+      <c r="T76">
+        <v>4934503</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20">
+      <c r="A77">
+        <v>150</v>
+      </c>
+      <c r="B77">
+        <v>171032</v>
+      </c>
+      <c r="C77">
+        <v>66724</v>
+      </c>
+      <c r="D77">
+        <v>3243</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="Q77">
+        <v>150</v>
+      </c>
+      <c r="R77">
+        <v>171128</v>
+      </c>
+      <c r="S77">
+        <v>56196</v>
+      </c>
+      <c r="T77">
+        <v>1800429</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20">
+      <c r="A78">
+        <v>150</v>
+      </c>
+      <c r="B78">
+        <v>171032</v>
+      </c>
+      <c r="C78">
+        <v>66724</v>
+      </c>
+      <c r="D78">
+        <v>2863</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="Q78">
+        <v>150</v>
+      </c>
+      <c r="R78">
+        <v>171128</v>
+      </c>
+      <c r="S78">
+        <v>56196</v>
+      </c>
+      <c r="T78">
+        <v>3800292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20">
+      <c r="A79">
+        <v>150</v>
+      </c>
+      <c r="B79">
+        <v>171032</v>
+      </c>
+      <c r="C79">
+        <v>66724</v>
+      </c>
+      <c r="D79">
+        <v>535092</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="Q79">
+        <v>150</v>
+      </c>
+      <c r="R79">
+        <v>171128</v>
+      </c>
+      <c r="S79">
+        <v>56196</v>
+      </c>
+      <c r="T79">
+        <v>4253268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20">
+      <c r="A80">
+        <v>150</v>
+      </c>
+      <c r="B80">
+        <v>171032</v>
+      </c>
+      <c r="C80">
+        <v>66724</v>
+      </c>
+      <c r="D80">
+        <v>2907</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="Q80">
+        <v>150</v>
+      </c>
+      <c r="R80">
+        <v>171128</v>
+      </c>
+      <c r="S80">
+        <v>56196</v>
+      </c>
+      <c r="T80">
+        <v>7546472</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20">
+      <c r="A81">
+        <v>150</v>
+      </c>
+      <c r="B81">
+        <v>171032</v>
+      </c>
+      <c r="C81">
+        <v>66724</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="G81">
+        <v>2980175</v>
+      </c>
+      <c r="Q81">
+        <v>150</v>
+      </c>
+      <c r="R81">
+        <v>171128</v>
+      </c>
+      <c r="S81">
+        <v>56196</v>
+      </c>
+      <c r="T81">
+        <v>498356</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20">
+      <c r="A82">
+        <v>150</v>
+      </c>
+      <c r="B82">
+        <v>171032</v>
+      </c>
+      <c r="C82">
+        <v>66724</v>
+      </c>
+      <c r="D82">
+        <v>515349</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="Q82">
+        <v>150</v>
+      </c>
+      <c r="R82">
+        <v>171128</v>
+      </c>
+      <c r="S82">
+        <v>56196</v>
+      </c>
+      <c r="T82">
+        <v>1264549</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20">
+      <c r="A83">
+        <v>150</v>
+      </c>
+      <c r="B83">
+        <v>171032</v>
+      </c>
+      <c r="C83">
+        <v>66724</v>
+      </c>
+      <c r="D83">
+        <v>4761</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="Q83">
+        <v>150</v>
+      </c>
+      <c r="R83">
+        <v>171128</v>
+      </c>
+      <c r="S83">
+        <v>56196</v>
+      </c>
+      <c r="T83">
+        <v>977461</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
+      <c r="A84">
+        <v>150</v>
+      </c>
+      <c r="B84">
+        <v>171032</v>
+      </c>
+      <c r="C84">
+        <v>66724</v>
+      </c>
+      <c r="D84">
+        <v>440471</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="Q84">
+        <v>150</v>
+      </c>
+      <c r="R84">
+        <v>171128</v>
+      </c>
+      <c r="S84">
+        <v>56196</v>
+      </c>
+      <c r="T84">
+        <v>1066377</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20">
+      <c r="A85">
+        <v>150</v>
+      </c>
+      <c r="B85">
+        <v>171032</v>
+      </c>
+      <c r="C85">
+        <v>66724</v>
+      </c>
+      <c r="D85">
+        <v>529753</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="Q85">
+        <v>150</v>
+      </c>
+      <c r="R85">
+        <v>171128</v>
+      </c>
+      <c r="S85">
+        <v>56196</v>
+      </c>
+      <c r="T85">
+        <v>6989919</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20">
+      <c r="A86">
+        <v>150</v>
+      </c>
+      <c r="B86">
+        <v>171032</v>
+      </c>
+      <c r="C86">
+        <v>66724</v>
+      </c>
+      <c r="D86">
+        <v>769</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="Q86">
+        <v>150</v>
+      </c>
+      <c r="R86">
+        <v>171128</v>
+      </c>
+      <c r="S86">
+        <v>56196</v>
+      </c>
+      <c r="T86">
+        <v>1574128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20">
+      <c r="A87">
+        <v>150</v>
+      </c>
+      <c r="B87">
+        <v>171032</v>
+      </c>
+      <c r="C87">
+        <v>66724</v>
+      </c>
+      <c r="D87">
+        <v>771</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="Q87">
+        <v>150</v>
+      </c>
+      <c r="R87">
+        <v>171128</v>
+      </c>
+      <c r="S87">
+        <v>56196</v>
+      </c>
+      <c r="T87">
+        <v>3667543</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20">
+      <c r="A88">
+        <v>150</v>
+      </c>
+      <c r="B88">
+        <v>171032</v>
+      </c>
+      <c r="C88">
+        <v>66724</v>
+      </c>
+      <c r="D88">
+        <v>832</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="Q88">
+        <v>150</v>
+      </c>
+      <c r="R88">
+        <v>171128</v>
+      </c>
+      <c r="S88">
+        <v>56196</v>
+      </c>
+      <c r="T88">
+        <v>6308013</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20">
+      <c r="A89">
+        <v>150</v>
+      </c>
+      <c r="B89">
+        <v>171032</v>
+      </c>
+      <c r="C89">
+        <v>66724</v>
+      </c>
+      <c r="D89">
+        <v>676</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="Q89">
+        <v>150</v>
+      </c>
+      <c r="R89">
+        <v>171128</v>
+      </c>
+      <c r="S89">
+        <v>56196</v>
+      </c>
+      <c r="T89">
+        <v>1407985</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20">
+      <c r="A90">
+        <v>150</v>
+      </c>
+      <c r="B90">
+        <v>171032</v>
+      </c>
+      <c r="C90">
+        <v>66724</v>
+      </c>
+      <c r="D90">
+        <v>570</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="Q90">
+        <v>150</v>
+      </c>
+      <c r="R90">
+        <v>171128</v>
+      </c>
+      <c r="S90">
+        <v>56196</v>
+      </c>
+      <c r="T90">
+        <v>2463872</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20">
+      <c r="A91">
+        <v>150</v>
+      </c>
+      <c r="B91">
+        <v>171032</v>
+      </c>
+      <c r="C91">
+        <v>66724</v>
+      </c>
+      <c r="D91">
+        <v>212732</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="Q91">
+        <v>150</v>
+      </c>
+      <c r="R91">
+        <v>171128</v>
+      </c>
+      <c r="S91">
+        <v>56196</v>
+      </c>
+      <c r="T91">
+        <v>6054</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20">
+      <c r="A92">
+        <v>150</v>
+      </c>
+      <c r="B92">
+        <v>171032</v>
+      </c>
+      <c r="C92">
+        <v>66724</v>
+      </c>
+      <c r="D92">
+        <v>668</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="Q92">
+        <v>150</v>
+      </c>
+      <c r="R92">
+        <v>171128</v>
+      </c>
+      <c r="S92">
+        <v>56196</v>
+      </c>
+      <c r="T92">
+        <v>3179</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20">
+      <c r="A93">
+        <v>150</v>
+      </c>
+      <c r="B93">
+        <v>171032</v>
+      </c>
+      <c r="C93">
+        <v>66724</v>
+      </c>
+      <c r="D93">
+        <v>3371</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="Q93">
+        <v>150</v>
+      </c>
+      <c r="R93">
+        <v>171128</v>
+      </c>
+      <c r="S93">
+        <v>56196</v>
+      </c>
+      <c r="T93">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20">
+      <c r="A94">
+        <v>150</v>
+      </c>
+      <c r="B94">
+        <v>171032</v>
+      </c>
+      <c r="C94">
+        <v>66724</v>
+      </c>
+      <c r="D94">
+        <v>3385</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="Q94">
+        <v>150</v>
+      </c>
+      <c r="R94">
+        <v>171128</v>
+      </c>
+      <c r="S94">
+        <v>56196</v>
+      </c>
+      <c r="T94">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20">
+      <c r="A95">
+        <v>150</v>
+      </c>
+      <c r="B95">
+        <v>171032</v>
+      </c>
+      <c r="C95">
+        <v>66724</v>
+      </c>
+      <c r="D95">
+        <v>956</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="Q95">
+        <v>150</v>
+      </c>
+      <c r="R95">
+        <v>171128</v>
+      </c>
+      <c r="S95">
+        <v>56196</v>
+      </c>
+      <c r="T95">
+        <v>2905</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20">
+      <c r="A96">
+        <v>150</v>
+      </c>
+      <c r="B96">
+        <v>171032</v>
+      </c>
+      <c r="C96">
+        <v>66724</v>
+      </c>
+      <c r="D96">
+        <v>671</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="Q96">
+        <v>150</v>
+      </c>
+      <c r="R96">
+        <v>171128</v>
+      </c>
+      <c r="S96">
+        <v>56196</v>
+      </c>
+      <c r="T96">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20">
+      <c r="A97">
+        <v>150</v>
+      </c>
+      <c r="B97">
+        <v>171032</v>
+      </c>
+      <c r="C97">
+        <v>66724</v>
+      </c>
+      <c r="D97">
+        <v>809</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="Q97">
+        <v>150</v>
+      </c>
+      <c r="R97">
+        <v>171128</v>
+      </c>
+      <c r="S97">
+        <v>56196</v>
+      </c>
+      <c r="T97">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20">
+      <c r="A98">
+        <v>150</v>
+      </c>
+      <c r="B98">
+        <v>171032</v>
+      </c>
+      <c r="C98">
+        <v>66724</v>
+      </c>
+      <c r="D98">
+        <v>677</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="Q98">
+        <v>150</v>
+      </c>
+      <c r="R98">
+        <v>171128</v>
+      </c>
+      <c r="S98">
+        <v>56196</v>
+      </c>
+      <c r="T98">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20">
+      <c r="A99">
+        <v>150</v>
+      </c>
+      <c r="B99">
+        <v>171032</v>
+      </c>
+      <c r="C99">
+        <v>66724</v>
+      </c>
+      <c r="D99">
+        <v>638</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="Q99">
+        <v>150</v>
+      </c>
+      <c r="R99">
+        <v>171128</v>
+      </c>
+      <c r="S99">
+        <v>56196</v>
+      </c>
+      <c r="T99">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20">
+      <c r="A100">
+        <v>150</v>
+      </c>
+      <c r="B100">
+        <v>171032</v>
+      </c>
+      <c r="C100">
+        <v>66724</v>
+      </c>
+      <c r="D100">
+        <v>773</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q100">
+        <v>150</v>
+      </c>
+      <c r="R100">
+        <v>171128</v>
+      </c>
+      <c r="S100">
+        <v>56196</v>
+      </c>
+      <c r="T100">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20">
+      <c r="A101">
+        <v>150</v>
+      </c>
+      <c r="B101">
+        <v>171032</v>
+      </c>
+      <c r="C101">
+        <v>66724</v>
+      </c>
+      <c r="D101">
+        <v>657</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="Q101">
+        <v>150</v>
+      </c>
+      <c r="R101">
+        <v>171128</v>
+      </c>
+      <c r="S101">
+        <v>56196</v>
+      </c>
+      <c r="T101">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20">
+      <c r="A102">
+        <v>150</v>
+      </c>
+      <c r="B102">
+        <v>171032</v>
+      </c>
+      <c r="C102">
+        <v>66724</v>
+      </c>
+      <c r="D102">
+        <v>760</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="Q102">
+        <v>150</v>
+      </c>
+      <c r="R102">
+        <v>171128</v>
+      </c>
+      <c r="S102">
+        <v>56196</v>
+      </c>
+      <c r="T102">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20">
+      <c r="A103">
+        <v>150</v>
+      </c>
+      <c r="B103">
+        <v>171032</v>
+      </c>
+      <c r="C103">
+        <v>66724</v>
+      </c>
+      <c r="D103">
+        <v>719</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="Q103">
+        <v>150</v>
+      </c>
+      <c r="R103">
+        <v>171128</v>
+      </c>
+      <c r="S103">
+        <v>56196</v>
+      </c>
+      <c r="T103">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20">
+      <c r="A104">
+        <v>150</v>
+      </c>
+      <c r="B104">
+        <v>171032</v>
+      </c>
+      <c r="C104">
+        <v>66724</v>
+      </c>
+      <c r="D104">
+        <v>811</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="Q104">
+        <v>150</v>
+      </c>
+      <c r="R104">
+        <v>171128</v>
+      </c>
+      <c r="S104">
+        <v>56196</v>
+      </c>
+      <c r="T104">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20">
+      <c r="A105">
+        <v>150</v>
+      </c>
+      <c r="B105">
+        <v>171032</v>
+      </c>
+      <c r="C105">
+        <v>66724</v>
+      </c>
+      <c r="D105">
+        <v>638</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="Q105">
+        <v>150</v>
+      </c>
+      <c r="R105">
+        <v>171128</v>
+      </c>
+      <c r="S105">
+        <v>56196</v>
+      </c>
+      <c r="T105">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20">
+      <c r="A106">
+        <v>150</v>
+      </c>
+      <c r="B106">
+        <v>171032</v>
+      </c>
+      <c r="C106">
+        <v>66724</v>
+      </c>
+      <c r="D106">
+        <v>583</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="Q106">
+        <v>150</v>
+      </c>
+      <c r="R106">
+        <v>171128</v>
+      </c>
+      <c r="S106">
+        <v>56196</v>
+      </c>
+      <c r="T106">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20">
+      <c r="A107">
+        <v>150</v>
+      </c>
+      <c r="B107">
+        <v>171032</v>
+      </c>
+      <c r="C107">
+        <v>66724</v>
+      </c>
+      <c r="D107">
+        <v>582</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="Q107">
+        <v>150</v>
+      </c>
+      <c r="R107">
+        <v>171128</v>
+      </c>
+      <c r="S107">
+        <v>56196</v>
+      </c>
+      <c r="T107">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20">
+      <c r="A108">
+        <v>150</v>
+      </c>
+      <c r="B108">
+        <v>171032</v>
+      </c>
+      <c r="C108">
+        <v>66724</v>
+      </c>
+      <c r="D108">
+        <v>773</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="Q108">
+        <v>150</v>
+      </c>
+      <c r="R108">
+        <v>171128</v>
+      </c>
+      <c r="S108">
+        <v>56196</v>
+      </c>
+      <c r="T108">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20">
+      <c r="A109">
+        <v>150</v>
+      </c>
+      <c r="B109">
+        <v>171032</v>
+      </c>
+      <c r="C109">
+        <v>66724</v>
+      </c>
+      <c r="D109">
+        <v>731</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="Q109">
+        <v>150</v>
+      </c>
+      <c r="R109">
+        <v>171128</v>
+      </c>
+      <c r="S109">
+        <v>56196</v>
+      </c>
+      <c r="T109">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20">
+      <c r="A110">
+        <v>150</v>
+      </c>
+      <c r="B110">
+        <v>171032</v>
+      </c>
+      <c r="C110">
+        <v>66724</v>
+      </c>
+      <c r="D110">
+        <v>619</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="Q110">
+        <v>150</v>
+      </c>
+      <c r="R110">
+        <v>171128</v>
+      </c>
+      <c r="S110">
+        <v>56196</v>
+      </c>
+      <c r="T110">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20">
+      <c r="A111">
+        <v>150</v>
+      </c>
+      <c r="B111">
+        <v>171032</v>
+      </c>
+      <c r="C111">
+        <v>66724</v>
+      </c>
+      <c r="D111">
+        <v>806</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="Q111">
+        <v>150</v>
+      </c>
+      <c r="R111">
+        <v>171128</v>
+      </c>
+      <c r="S111">
+        <v>56196</v>
+      </c>
+      <c r="T111">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20">
+      <c r="A112">
+        <v>150</v>
+      </c>
+      <c r="B112">
+        <v>171032</v>
+      </c>
+      <c r="C112">
+        <v>66724</v>
+      </c>
+      <c r="D112">
+        <v>783</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="Q112">
+        <v>150</v>
+      </c>
+      <c r="R112">
+        <v>171128</v>
+      </c>
+      <c r="S112">
+        <v>56196</v>
+      </c>
+      <c r="T112">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20">
+      <c r="A113">
+        <v>150</v>
+      </c>
+      <c r="B113">
+        <v>171032</v>
+      </c>
+      <c r="C113">
+        <v>66724</v>
+      </c>
+      <c r="D113">
+        <v>659</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="Q113">
+        <v>150</v>
+      </c>
+      <c r="R113">
+        <v>171128</v>
+      </c>
+      <c r="S113">
+        <v>56196</v>
+      </c>
+      <c r="T113">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20">
+      <c r="A114">
+        <v>150</v>
+      </c>
+      <c r="B114">
+        <v>171032</v>
+      </c>
+      <c r="C114">
+        <v>66724</v>
+      </c>
+      <c r="D114">
+        <v>369</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="Q114">
+        <v>150</v>
+      </c>
+      <c r="R114">
+        <v>171128</v>
+      </c>
+      <c r="S114">
+        <v>56196</v>
+      </c>
+      <c r="T114">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20">
+      <c r="A115">
+        <v>150</v>
+      </c>
+      <c r="B115">
+        <v>171032</v>
+      </c>
+      <c r="C115">
+        <v>66724</v>
+      </c>
+      <c r="D115">
+        <v>321</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="Q115">
+        <v>150</v>
+      </c>
+      <c r="R115">
+        <v>171128</v>
+      </c>
+      <c r="S115">
+        <v>56196</v>
+      </c>
+      <c r="T115">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="116" spans="1:20">
+      <c r="A116">
+        <v>150</v>
+      </c>
+      <c r="B116">
+        <v>171032</v>
+      </c>
+      <c r="C116">
+        <v>66724</v>
+      </c>
+      <c r="D116">
+        <v>349</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="Q116">
+        <v>150</v>
+      </c>
+      <c r="R116">
+        <v>171128</v>
+      </c>
+      <c r="S116">
+        <v>56196</v>
+      </c>
+      <c r="T116">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20">
+      <c r="A117">
+        <v>150</v>
+      </c>
+      <c r="B117">
+        <v>171032</v>
+      </c>
+      <c r="C117">
+        <v>66724</v>
+      </c>
+      <c r="D117">
+        <v>446</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="Q117">
+        <v>150</v>
+      </c>
+      <c r="R117">
+        <v>171128</v>
+      </c>
+      <c r="S117">
+        <v>56196</v>
+      </c>
+      <c r="T117">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:20">
+      <c r="A118">
+        <v>150</v>
+      </c>
+      <c r="B118">
+        <v>171032</v>
+      </c>
+      <c r="C118">
+        <v>66724</v>
+      </c>
+      <c r="D118">
+        <v>843</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="Q118">
+        <v>150</v>
+      </c>
+      <c r="R118">
+        <v>171128</v>
+      </c>
+      <c r="S118">
+        <v>56196</v>
+      </c>
+      <c r="T118">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="119" spans="1:20">
+      <c r="A119">
+        <v>150</v>
+      </c>
+      <c r="B119">
+        <v>171032</v>
+      </c>
+      <c r="C119">
+        <v>66724</v>
+      </c>
+      <c r="D119">
+        <v>370</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="Q119">
+        <v>150</v>
+      </c>
+      <c r="R119">
+        <v>171128</v>
+      </c>
+      <c r="S119">
+        <v>56196</v>
+      </c>
+      <c r="T119">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="120" spans="1:20">
+      <c r="A120">
+        <v>150</v>
+      </c>
+      <c r="B120">
+        <v>171032</v>
+      </c>
+      <c r="C120">
+        <v>66724</v>
+      </c>
+      <c r="D120">
+        <v>428</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="Q120">
+        <v>150</v>
+      </c>
+      <c r="R120">
+        <v>171128</v>
+      </c>
+      <c r="S120">
+        <v>56196</v>
+      </c>
+      <c r="T120">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="121" spans="1:20">
+      <c r="A121">
+        <v>150</v>
+      </c>
+      <c r="B121">
+        <v>171032</v>
+      </c>
+      <c r="C121">
+        <v>66724</v>
+      </c>
+      <c r="D121">
+        <v>315</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="Q121">
+        <v>150</v>
+      </c>
+      <c r="R121">
+        <v>171128</v>
+      </c>
+      <c r="S121">
+        <v>56196</v>
+      </c>
+      <c r="T121">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="122" spans="1:20">
+      <c r="A122">
+        <v>150</v>
+      </c>
+      <c r="B122">
+        <v>171032</v>
+      </c>
+      <c r="C122">
+        <v>66724</v>
+      </c>
+      <c r="D122">
+        <v>435</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="1"/>
+        <v>122</v>
+      </c>
+      <c r="Q122">
+        <v>150</v>
+      </c>
+      <c r="R122">
+        <v>171128</v>
+      </c>
+      <c r="S122">
+        <v>56196</v>
+      </c>
+      <c r="T122">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="123" spans="1:20">
+      <c r="A123">
+        <v>150</v>
+      </c>
+      <c r="B123">
+        <v>171032</v>
+      </c>
+      <c r="C123">
+        <v>66724</v>
+      </c>
+      <c r="D123">
+        <v>361</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="1"/>
+        <v>123</v>
+      </c>
+      <c r="Q123">
+        <v>150</v>
+      </c>
+      <c r="R123">
+        <v>171128</v>
+      </c>
+      <c r="S123">
+        <v>56196</v>
+      </c>
+      <c r="T123">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="124" spans="1:20">
+      <c r="A124">
+        <v>150</v>
+      </c>
+      <c r="B124">
+        <v>171032</v>
+      </c>
+      <c r="C124">
+        <v>66724</v>
+      </c>
+      <c r="D124">
+        <v>362</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="1"/>
+        <v>124</v>
+      </c>
+      <c r="Q124">
+        <v>150</v>
+      </c>
+      <c r="R124">
+        <v>171128</v>
+      </c>
+      <c r="S124">
+        <v>56196</v>
+      </c>
+      <c r="T124">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="125" spans="1:20">
+      <c r="A125">
+        <v>150</v>
+      </c>
+      <c r="B125">
+        <v>171032</v>
+      </c>
+      <c r="C125">
+        <v>66724</v>
+      </c>
+      <c r="D125">
+        <v>374</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="Q125">
+        <v>150</v>
+      </c>
+      <c r="R125">
+        <v>171128</v>
+      </c>
+      <c r="S125">
+        <v>56196</v>
+      </c>
+      <c r="T125">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="126" spans="1:20">
+      <c r="A126">
+        <v>150</v>
+      </c>
+      <c r="B126">
+        <v>171032</v>
+      </c>
+      <c r="C126">
+        <v>66724</v>
+      </c>
+      <c r="D126">
+        <v>359</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="Q126">
+        <v>150</v>
+      </c>
+      <c r="R126">
+        <v>171128</v>
+      </c>
+      <c r="S126">
+        <v>56196</v>
+      </c>
+      <c r="T126">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20">
+      <c r="A127">
+        <v>150</v>
+      </c>
+      <c r="B127">
+        <v>171032</v>
+      </c>
+      <c r="C127">
+        <v>66724</v>
+      </c>
+      <c r="D127">
+        <v>499</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="Q127">
+        <v>150</v>
+      </c>
+      <c r="R127">
+        <v>171128</v>
+      </c>
+      <c r="S127">
+        <v>56196</v>
+      </c>
+      <c r="T127">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20">
+      <c r="A128">
+        <v>150</v>
+      </c>
+      <c r="B128">
+        <v>171032</v>
+      </c>
+      <c r="C128">
+        <v>66724</v>
+      </c>
+      <c r="D128">
+        <v>330</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="Q128">
+        <v>150</v>
+      </c>
+      <c r="R128">
+        <v>171128</v>
+      </c>
+      <c r="S128">
+        <v>56196</v>
+      </c>
+      <c r="T128">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20">
+      <c r="A129">
+        <v>150</v>
+      </c>
+      <c r="B129">
+        <v>171032</v>
+      </c>
+      <c r="C129">
+        <v>66724</v>
+      </c>
+      <c r="D129">
+        <v>264</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="1"/>
+        <v>129</v>
+      </c>
+      <c r="Q129">
+        <v>150</v>
+      </c>
+      <c r="R129">
+        <v>171128</v>
+      </c>
+      <c r="S129">
+        <v>56196</v>
+      </c>
+      <c r="T129">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20">
+      <c r="A130">
+        <v>150</v>
+      </c>
+      <c r="B130">
+        <v>171032</v>
+      </c>
+      <c r="C130">
+        <v>66724</v>
+      </c>
+      <c r="D130">
+        <v>355</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="1"/>
+        <v>130</v>
+      </c>
+      <c r="Q130">
+        <v>150</v>
+      </c>
+      <c r="R130">
+        <v>171128</v>
+      </c>
+      <c r="S130">
+        <v>56196</v>
+      </c>
+      <c r="T130">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="131" spans="1:20">
+      <c r="A131">
+        <v>150</v>
+      </c>
+      <c r="B131">
+        <v>171032</v>
+      </c>
+      <c r="C131">
+        <v>66724</v>
+      </c>
+      <c r="D131">
+        <v>306</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:E150" si="2">E130+1</f>
+        <v>131</v>
+      </c>
+      <c r="Q131">
+        <v>150</v>
+      </c>
+      <c r="R131">
+        <v>171128</v>
+      </c>
+      <c r="S131">
+        <v>56196</v>
+      </c>
+      <c r="T131">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="132" spans="1:20">
+      <c r="A132">
+        <v>150</v>
+      </c>
+      <c r="B132">
+        <v>171032</v>
+      </c>
+      <c r="C132">
+        <v>66724</v>
+      </c>
+      <c r="D132">
+        <v>440</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="Q132">
+        <v>150</v>
+      </c>
+      <c r="R132">
+        <v>171128</v>
+      </c>
+      <c r="S132">
+        <v>56196</v>
+      </c>
+      <c r="T132">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="133" spans="1:20">
+      <c r="A133">
+        <v>150</v>
+      </c>
+      <c r="B133">
+        <v>171032</v>
+      </c>
+      <c r="C133">
+        <v>66724</v>
+      </c>
+      <c r="D133">
+        <v>313</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="2"/>
+        <v>133</v>
+      </c>
+      <c r="Q133">
+        <v>150</v>
+      </c>
+      <c r="R133">
+        <v>171128</v>
+      </c>
+      <c r="S133">
+        <v>56196</v>
+      </c>
+      <c r="T133">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="134" spans="1:20">
+      <c r="A134">
+        <v>150</v>
+      </c>
+      <c r="B134">
+        <v>171032</v>
+      </c>
+      <c r="C134">
+        <v>66724</v>
+      </c>
+      <c r="D134">
+        <v>328</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="2"/>
+        <v>134</v>
+      </c>
+      <c r="Q134">
+        <v>150</v>
+      </c>
+      <c r="R134">
+        <v>171128</v>
+      </c>
+      <c r="S134">
+        <v>56196</v>
+      </c>
+      <c r="T134">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="135" spans="1:20">
+      <c r="A135">
+        <v>150</v>
+      </c>
+      <c r="B135">
+        <v>171032</v>
+      </c>
+      <c r="C135">
+        <v>66724</v>
+      </c>
+      <c r="D135">
+        <v>764</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="Q135">
+        <v>150</v>
+      </c>
+      <c r="R135">
+        <v>171128</v>
+      </c>
+      <c r="S135">
+        <v>56196</v>
+      </c>
+      <c r="T135">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="136" spans="1:20">
+      <c r="A136">
+        <v>150</v>
+      </c>
+      <c r="B136">
+        <v>171032</v>
+      </c>
+      <c r="C136">
+        <v>66724</v>
+      </c>
+      <c r="D136">
+        <v>475</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="Q136">
+        <v>150</v>
+      </c>
+      <c r="R136">
+        <v>171128</v>
+      </c>
+      <c r="S136">
+        <v>56196</v>
+      </c>
+      <c r="T136">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="137" spans="1:20">
+      <c r="A137">
+        <v>150</v>
+      </c>
+      <c r="B137">
+        <v>171032</v>
+      </c>
+      <c r="C137">
+        <v>66724</v>
+      </c>
+      <c r="D137">
+        <v>351</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="2"/>
+        <v>137</v>
+      </c>
+      <c r="Q137">
+        <v>150</v>
+      </c>
+      <c r="R137">
+        <v>171128</v>
+      </c>
+      <c r="S137">
+        <v>56196</v>
+      </c>
+      <c r="T137">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="138" spans="1:20">
+      <c r="A138">
+        <v>150</v>
+      </c>
+      <c r="B138">
+        <v>171032</v>
+      </c>
+      <c r="C138">
+        <v>66724</v>
+      </c>
+      <c r="D138">
+        <v>474</v>
+      </c>
+      <c r="E138">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="Q138">
+        <v>150</v>
+      </c>
+      <c r="R138">
+        <v>171128</v>
+      </c>
+      <c r="S138">
+        <v>56196</v>
+      </c>
+      <c r="T138">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="139" spans="1:20">
+      <c r="A139">
+        <v>150</v>
+      </c>
+      <c r="B139">
+        <v>171032</v>
+      </c>
+      <c r="C139">
+        <v>66724</v>
+      </c>
+      <c r="D139">
+        <v>483</v>
+      </c>
+      <c r="E139">
+        <f t="shared" si="2"/>
+        <v>139</v>
+      </c>
+      <c r="Q139">
+        <v>150</v>
+      </c>
+      <c r="R139">
+        <v>171128</v>
+      </c>
+      <c r="S139">
+        <v>56196</v>
+      </c>
+      <c r="T139">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="140" spans="1:20">
+      <c r="A140">
+        <v>150</v>
+      </c>
+      <c r="B140">
+        <v>171032</v>
+      </c>
+      <c r="C140">
+        <v>66724</v>
+      </c>
+      <c r="D140">
+        <v>567</v>
+      </c>
+      <c r="E140">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="Q140">
+        <v>150</v>
+      </c>
+      <c r="R140">
+        <v>171128</v>
+      </c>
+      <c r="S140">
+        <v>56196</v>
+      </c>
+      <c r="T140">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="141" spans="1:20">
+      <c r="A141">
+        <v>150</v>
+      </c>
+      <c r="B141">
+        <v>171032</v>
+      </c>
+      <c r="C141">
+        <v>66724</v>
+      </c>
+      <c r="D141">
+        <v>377</v>
+      </c>
+      <c r="E141">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="Q141">
+        <v>150</v>
+      </c>
+      <c r="R141">
+        <v>171128</v>
+      </c>
+      <c r="S141">
+        <v>56196</v>
+      </c>
+      <c r="T141">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="142" spans="1:20">
+      <c r="A142">
+        <v>150</v>
+      </c>
+      <c r="B142">
+        <v>171032</v>
+      </c>
+      <c r="C142">
+        <v>66724</v>
+      </c>
+      <c r="D142">
+        <v>10024</v>
+      </c>
+      <c r="E142">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="Q142">
+        <v>150</v>
+      </c>
+      <c r="R142">
+        <v>171128</v>
+      </c>
+      <c r="S142">
+        <v>56196</v>
+      </c>
+      <c r="T142">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20">
+      <c r="A143">
+        <v>150</v>
+      </c>
+      <c r="B143">
+        <v>171032</v>
+      </c>
+      <c r="C143">
+        <v>66724</v>
+      </c>
+      <c r="D143">
+        <v>415</v>
+      </c>
+      <c r="E143">
+        <f t="shared" si="2"/>
+        <v>143</v>
+      </c>
+      <c r="Q143">
+        <v>150</v>
+      </c>
+      <c r="R143">
+        <v>171128</v>
+      </c>
+      <c r="S143">
+        <v>56196</v>
+      </c>
+      <c r="T143">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20">
+      <c r="A144">
+        <v>150</v>
+      </c>
+      <c r="B144">
+        <v>171032</v>
+      </c>
+      <c r="C144">
+        <v>66724</v>
+      </c>
+      <c r="D144">
+        <v>305</v>
+      </c>
+      <c r="E144">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="Q144">
+        <v>150</v>
+      </c>
+      <c r="R144">
+        <v>171128</v>
+      </c>
+      <c r="S144">
+        <v>56196</v>
+      </c>
+      <c r="T144">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="145" spans="1:20">
+      <c r="A145">
+        <v>150</v>
+      </c>
+      <c r="B145">
+        <v>171032</v>
+      </c>
+      <c r="C145">
+        <v>66724</v>
+      </c>
+      <c r="D145">
+        <v>246</v>
+      </c>
+      <c r="E145">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="Q145">
+        <v>150</v>
+      </c>
+      <c r="R145">
+        <v>171128</v>
+      </c>
+      <c r="S145">
+        <v>56196</v>
+      </c>
+      <c r="T145">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="146" spans="1:20">
+      <c r="A146">
+        <v>150</v>
+      </c>
+      <c r="B146">
+        <v>171032</v>
+      </c>
+      <c r="C146">
+        <v>66724</v>
+      </c>
+      <c r="D146">
+        <v>276</v>
+      </c>
+      <c r="E146">
+        <f t="shared" si="2"/>
+        <v>146</v>
+      </c>
+      <c r="Q146">
+        <v>150</v>
+      </c>
+      <c r="R146">
+        <v>171128</v>
+      </c>
+      <c r="S146">
+        <v>56196</v>
+      </c>
+      <c r="T146">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="147" spans="1:20">
+      <c r="A147">
+        <v>150</v>
+      </c>
+      <c r="B147">
+        <v>171032</v>
+      </c>
+      <c r="C147">
+        <v>66724</v>
+      </c>
+      <c r="D147">
+        <v>279</v>
+      </c>
+      <c r="E147">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="Q147">
+        <v>150</v>
+      </c>
+      <c r="R147">
+        <v>171128</v>
+      </c>
+      <c r="S147">
+        <v>56196</v>
+      </c>
+      <c r="T147">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="148" spans="1:20">
+      <c r="A148">
+        <v>150</v>
+      </c>
+      <c r="B148">
+        <v>171032</v>
+      </c>
+      <c r="C148">
+        <v>66724</v>
+      </c>
+      <c r="D148">
+        <v>239</v>
+      </c>
+      <c r="E148">
+        <f t="shared" si="2"/>
+        <v>148</v>
+      </c>
+      <c r="Q148">
+        <v>150</v>
+      </c>
+      <c r="R148">
+        <v>171128</v>
+      </c>
+      <c r="S148">
+        <v>56196</v>
+      </c>
+      <c r="T148">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="149" spans="1:20">
+      <c r="A149">
+        <v>150</v>
+      </c>
+      <c r="B149">
+        <v>171032</v>
+      </c>
+      <c r="C149">
+        <v>66724</v>
+      </c>
+      <c r="D149">
+        <v>385</v>
+      </c>
+      <c r="E149">
+        <f t="shared" si="2"/>
+        <v>149</v>
+      </c>
+      <c r="Q149">
+        <v>150</v>
+      </c>
+      <c r="R149">
+        <v>171128</v>
+      </c>
+      <c r="S149">
+        <v>56196</v>
+      </c>
+      <c r="T149">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="150" spans="1:20">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>171032</v>
+      </c>
+      <c r="C150">
+        <v>66724</v>
+      </c>
+      <c r="D150">
+        <v>342</v>
+      </c>
+      <c r="E150">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="Q150">
+        <v>150</v>
+      </c>
+      <c r="R150">
+        <v>171128</v>
+      </c>
+      <c r="S150">
+        <v>56196</v>
+      </c>
+      <c r="T150">
+        <v>540</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/project/charts.xlsx
+++ b/project/charts.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="0" windowWidth="25600" windowHeight="16180" tabRatio="500" activeTab="2"/>
+    <workbookView minimized="1" xWindow="980" yWindow="0" windowWidth="25600" windowHeight="16180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="experimen1" sheetId="1" r:id="rId1"/>
-    <sheet name="experiment2" sheetId="2" r:id="rId2"/>
-    <sheet name="experiment3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId1"/>
+    <sheet name="experimen1" sheetId="1" r:id="rId2"/>
+    <sheet name="experiment2" sheetId="2" r:id="rId3"/>
+    <sheet name="experiment3" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="experimentOne" localSheetId="0">experimen1!#REF!</definedName>
-    <definedName name="experimentOne_1" localSheetId="0">experimen1!$A$1:$E$60</definedName>
-    <definedName name="experimentThree" localSheetId="2">experiment3!$A$1:$D$150</definedName>
-    <definedName name="experimentThree_1" localSheetId="2">experiment3!$Q$1:$T$150</definedName>
-    <definedName name="experimentTwo" localSheetId="1">experiment2!$A$1:$B$5</definedName>
+    <definedName name="experimentOne" localSheetId="1">experimen1!#REF!</definedName>
+    <definedName name="experimentOne_1" localSheetId="1">experimen1!$A$1:$E$60</definedName>
+    <definedName name="experimentThree" localSheetId="3">experiment3!$A$1:$D$150</definedName>
+    <definedName name="experimentThree_1" localSheetId="3">experiment3!$Q$1:$T$150</definedName>
+    <definedName name="experimentTwo" localSheetId="2">experiment2!$A$1:$B$5</definedName>
+    <definedName name="output" localSheetId="1">experimen1!$G$20:$H$138</definedName>
+    <definedName name="output" localSheetId="0">Sheet3!$A$1:$B$119</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -75,6 +78,22 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="6" name="output" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:julestestard:Projects:git:courses:cse221:project:Memory:measurements:output" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="7" name="output1" type="6" refreshedVersion="0" background="1" saveData="1">
+    <textPr fileType="mac" sourceFile="Macintosh HD:Users:julestestard:Projects:git:courses:cse221:project:Memory:measurements:output" comma="1">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
@@ -93,10 +112,10 @@
     <t>Stride1024</t>
   </si>
   <si>
-    <t>average</t>
+    <t>one sample removed because it flukes the dataset.</t>
   </si>
   <si>
-    <t>one sample removed because it flukes the dataset.</t>
+    <t>average x 2.5</t>
   </si>
 </sst>
 </file>
@@ -152,8 +171,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -173,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -181,6 +206,9 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -188,6 +216,9 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -209,26 +240,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Back-to-back load latency</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -239,7 +251,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>experimen1!$K$4</c:f>
+              <c:f>experimen1!$K$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -312,49 +324,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>19.0</c:v>
+                  <c:v>2.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.0</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.0</c:v>
+                  <c:v>14.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.0</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.0</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37.0</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.0</c:v>
+                  <c:v>14.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.0</c:v>
+                  <c:v>25.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.0</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60.0</c:v>
+                  <c:v>24.1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>65.0</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>71.0</c:v>
+                  <c:v>22.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62.0</c:v>
+                  <c:v>23.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>68.0</c:v>
+                  <c:v>21.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -366,7 +378,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>experimen1!$L$4</c:f>
+              <c:f>experimen1!$L$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -439,49 +451,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>18.0</c:v>
+                  <c:v>3.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>3.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.0</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.0</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.0</c:v>
+                  <c:v>11.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.0</c:v>
+                  <c:v>14.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>39.0</c:v>
+                  <c:v>13.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.0</c:v>
+                  <c:v>33.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.0</c:v>
+                  <c:v>30.1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>67.0</c:v>
+                  <c:v>32.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>66.0</c:v>
+                  <c:v>33.4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75.0</c:v>
+                  <c:v>32.1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>78.0</c:v>
+                  <c:v>33.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>81.0</c:v>
+                  <c:v>31.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -493,7 +505,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>experimen1!$M$4</c:f>
+              <c:f>experimen1!$M$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -566,49 +578,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>18.0</c:v>
+                  <c:v>3.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17.0</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.0</c:v>
+                  <c:v>11.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.0</c:v>
+                  <c:v>14.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19.0</c:v>
+                  <c:v>17.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37.0</c:v>
+                  <c:v>10.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.0</c:v>
+                  <c:v>13.3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.0</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>88.0</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99.0</c:v>
+                  <c:v>47.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>97.0</c:v>
+                  <c:v>43.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>112.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>127.0</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>115.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>129.0</c:v>
+                  <c:v>117.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -620,7 +632,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>experimen1!$N$4</c:f>
+              <c:f>experimen1!$N$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -693,49 +705,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>19.0</c:v>
+                  <c:v>4.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>4.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.0</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20.0</c:v>
+                  <c:v>12.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22.0</c:v>
+                  <c:v>14.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>39.0</c:v>
+                  <c:v>11.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.0</c:v>
+                  <c:v>16.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44.0</c:v>
+                  <c:v>12.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>102.0</c:v>
+                  <c:v>50.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>131.0</c:v>
+                  <c:v>50.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>47.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>134.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>142.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>159.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>156.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>161.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1451,16 +1463,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1518,18 +1530,26 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output" connectionId="6" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output" connectionId="7" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="experimentOne_1" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="experimentTwo" connectionId="5" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="experimentThree_1" connectionId="4" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="experimentThree" connectionId="3" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -1855,10 +1875,987 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B119"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>0.49</v>
+      </c>
+      <c r="B1">
+        <v>1.3751949999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>0.98</v>
+      </c>
+      <c r="B2">
+        <v>3.1526510000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1.95</v>
+      </c>
+      <c r="B3">
+        <v>4.1760580000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2.93</v>
+      </c>
+      <c r="B4">
+        <v>2.3091490000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3.91</v>
+      </c>
+      <c r="B5">
+        <v>4.0067279999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5.86</v>
+      </c>
+      <c r="B6">
+        <v>1.860411</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>7.81</v>
+      </c>
+      <c r="B7">
+        <v>3.6099700000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>9.77</v>
+      </c>
+      <c r="B8">
+        <v>3.8551489999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>11.72</v>
+      </c>
+      <c r="B9">
+        <v>1.748823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>13.67</v>
+      </c>
+      <c r="B10">
+        <v>3.7463389999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11">
+        <v>15.62</v>
+      </c>
+      <c r="B11">
+        <v>2.4916330000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="B12">
+        <v>2.0283799999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13">
+        <v>19.53</v>
+      </c>
+      <c r="B13">
+        <v>2.452804</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14">
+        <v>21.48</v>
+      </c>
+      <c r="B14">
+        <v>3.2678509999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15">
+        <v>23.44</v>
+      </c>
+      <c r="B15">
+        <v>2.8616799999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16">
+        <v>25.39</v>
+      </c>
+      <c r="B16">
+        <v>3.40863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>27.34</v>
+      </c>
+      <c r="B17">
+        <v>1.408887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>29.3</v>
+      </c>
+      <c r="B18">
+        <v>1.9766159999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>31.25</v>
+      </c>
+      <c r="B19">
+        <v>2.2537660000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="B20">
+        <v>8.4175360000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>39.06</v>
+      </c>
+      <c r="B21">
+        <v>7.7647469999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>42.97</v>
+      </c>
+      <c r="B22">
+        <v>8.4437029999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>46.88</v>
+      </c>
+      <c r="B23">
+        <v>7.1706099999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>50.78</v>
+      </c>
+      <c r="B24">
+        <v>8.3539399999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>54.69</v>
+      </c>
+      <c r="B25">
+        <v>8.4312590000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>58.59</v>
+      </c>
+      <c r="B26">
+        <v>7.4708670000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>62.5</v>
+      </c>
+      <c r="B27">
+        <v>9.3241040000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>70.31</v>
+      </c>
+      <c r="B28">
+        <v>7.2694929999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>78.12</v>
+      </c>
+      <c r="B29">
+        <v>7.073969</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>85.94</v>
+      </c>
+      <c r="B30">
+        <v>7.8177820000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>93.75</v>
+      </c>
+      <c r="B31">
+        <v>9.0400109999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <v>101.56</v>
+      </c>
+      <c r="B32">
+        <v>8.1914280000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>109.38</v>
+      </c>
+      <c r="B33">
+        <v>7.9771739999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>117.19</v>
+      </c>
+      <c r="B34">
+        <v>7.2464510000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>125</v>
+      </c>
+      <c r="B35">
+        <v>7.2808929999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>140.62</v>
+      </c>
+      <c r="B36">
+        <v>8.4968599999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>156.25</v>
+      </c>
+      <c r="B37">
+        <v>7.1672580000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>171.88</v>
+      </c>
+      <c r="B38">
+        <v>6.6816389999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>187.5</v>
+      </c>
+      <c r="B39">
+        <v>8.8988370000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>203.12</v>
+      </c>
+      <c r="B40">
+        <v>7.123246</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>218.75</v>
+      </c>
+      <c r="B41">
+        <v>8.6903799999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>234.38</v>
+      </c>
+      <c r="B42">
+        <v>7.1295070000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>250</v>
+      </c>
+      <c r="B43">
+        <v>8.4297090000000008</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>281.25</v>
+      </c>
+      <c r="B44">
+        <v>5.6292520000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>312.5</v>
+      </c>
+      <c r="B45">
+        <v>6.2542080000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>343.75</v>
+      </c>
+      <c r="B46">
+        <v>6.4811579999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>375</v>
+      </c>
+      <c r="B47">
+        <v>6.2351669999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>406.25</v>
+      </c>
+      <c r="B48">
+        <v>6.9807589999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>437.5</v>
+      </c>
+      <c r="B49">
+        <v>6.8721240000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>468.75</v>
+      </c>
+      <c r="B50">
+        <v>7.1703979999999996</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>500</v>
+      </c>
+      <c r="B51">
+        <v>7.679729</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>562.5</v>
+      </c>
+      <c r="B52">
+        <v>6.1992760000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>625</v>
+      </c>
+      <c r="B53">
+        <v>6.1903589999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>687.5</v>
+      </c>
+      <c r="B54">
+        <v>5.7278770000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <v>750</v>
+      </c>
+      <c r="B55">
+        <v>6.4532230000000004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <v>812.5</v>
+      </c>
+      <c r="B56">
+        <v>8.2119909999999994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <v>875</v>
+      </c>
+      <c r="B57">
+        <v>7.922822</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <v>937.5</v>
+      </c>
+      <c r="B58">
+        <v>6.8243609999999997</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <v>1000</v>
+      </c>
+      <c r="B59">
+        <v>7.0536440000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <v>1125</v>
+      </c>
+      <c r="B60">
+        <v>6.8787190000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <v>1250</v>
+      </c>
+      <c r="B61">
+        <v>6.2062799999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <v>1375</v>
+      </c>
+      <c r="B62">
+        <v>8.2830600000000008</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <v>1500</v>
+      </c>
+      <c r="B63">
+        <v>8.5471590000000006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <v>1625</v>
+      </c>
+      <c r="B64">
+        <v>7.701638</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>1750</v>
+      </c>
+      <c r="B65">
+        <v>7.3839769999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>1875</v>
+      </c>
+      <c r="B66">
+        <v>7.9433759999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>2000</v>
+      </c>
+      <c r="B67">
+        <v>7.9033790000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>2250</v>
+      </c>
+      <c r="B68">
+        <v>8.4730930000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>2500</v>
+      </c>
+      <c r="B69">
+        <v>9.1617879999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>2750</v>
+      </c>
+      <c r="B70">
+        <v>11.681111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>3000</v>
+      </c>
+      <c r="B71">
+        <v>13.59197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>3250</v>
+      </c>
+      <c r="B72">
+        <v>13.124031</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>3500</v>
+      </c>
+      <c r="B73">
+        <v>15.956087</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>3750</v>
+      </c>
+      <c r="B74">
+        <v>15.160399999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>4000</v>
+      </c>
+      <c r="B75">
+        <v>17.898727000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>4500</v>
+      </c>
+      <c r="B76">
+        <v>17.735327000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>5000</v>
+      </c>
+      <c r="B77">
+        <v>16.268920999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>5500</v>
+      </c>
+      <c r="B78">
+        <v>16.781925999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>6000</v>
+      </c>
+      <c r="B79">
+        <v>19.225736999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>6500</v>
+      </c>
+      <c r="B80">
+        <v>18.768802999999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>7000</v>
+      </c>
+      <c r="B81">
+        <v>19.228263999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <v>7500</v>
+      </c>
+      <c r="B82">
+        <v>18.368697999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <v>8000</v>
+      </c>
+      <c r="B83">
+        <v>19.540762999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <v>9000</v>
+      </c>
+      <c r="B84">
+        <v>20.420021999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <v>10000</v>
+      </c>
+      <c r="B85">
+        <v>19.255495</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <v>11000</v>
+      </c>
+      <c r="B86">
+        <v>19.878012999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <v>12000</v>
+      </c>
+      <c r="B87">
+        <v>19.073170999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <v>13000</v>
+      </c>
+      <c r="B88">
+        <v>20.459664</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <v>14000</v>
+      </c>
+      <c r="B89">
+        <v>19.650703</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <v>15000</v>
+      </c>
+      <c r="B90">
+        <v>20.678698000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <v>16000</v>
+      </c>
+      <c r="B91">
+        <v>19.368105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <v>18000</v>
+      </c>
+      <c r="B92">
+        <v>18.331177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <v>20000</v>
+      </c>
+      <c r="B93">
+        <v>19.861694</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <v>22000</v>
+      </c>
+      <c r="B94">
+        <v>18.108042000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <v>24000</v>
+      </c>
+      <c r="B95">
+        <v>18.709800999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <v>26000</v>
+      </c>
+      <c r="B96">
+        <v>18.973666000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <v>28000</v>
+      </c>
+      <c r="B97">
+        <v>18.205137000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <v>30000</v>
+      </c>
+      <c r="B98">
+        <v>19.039432999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <v>32000</v>
+      </c>
+      <c r="B99">
+        <v>18.088453000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <v>36000</v>
+      </c>
+      <c r="B100">
+        <v>20.208064</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <v>40000</v>
+      </c>
+      <c r="B101">
+        <v>18.440818</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <v>44000</v>
+      </c>
+      <c r="B102">
+        <v>18.974316000000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <v>48000</v>
+      </c>
+      <c r="B103">
+        <v>19.532029999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <v>52000</v>
+      </c>
+      <c r="B104">
+        <v>20.322165999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <v>56000</v>
+      </c>
+      <c r="B105">
+        <v>19.077311999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <v>60000</v>
+      </c>
+      <c r="B106">
+        <v>17.966296</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <v>64000</v>
+      </c>
+      <c r="B107">
+        <v>19.59196</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <v>72000</v>
+      </c>
+      <c r="B108">
+        <v>19.494772000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <v>80000</v>
+      </c>
+      <c r="B109">
+        <v>20.258039</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <v>88000</v>
+      </c>
+      <c r="B110">
+        <v>18.223828000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111">
+        <v>96000</v>
+      </c>
+      <c r="B111">
+        <v>20.132135999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112">
+        <v>104000</v>
+      </c>
+      <c r="B112">
+        <v>18.760611000000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113">
+        <v>112000</v>
+      </c>
+      <c r="B113">
+        <v>20.517078000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114">
+        <v>120000</v>
+      </c>
+      <c r="B114">
+        <v>20.414114999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115">
+        <v>128000</v>
+      </c>
+      <c r="B115">
+        <v>20.052517000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116">
+        <v>144000</v>
+      </c>
+      <c r="B116">
+        <v>19.796050999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117">
+        <v>160000</v>
+      </c>
+      <c r="B117">
+        <v>20.169602000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118">
+        <v>176000</v>
+      </c>
+      <c r="B118">
+        <v>20.948115999999999</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119">
+        <v>192000</v>
+      </c>
+      <c r="B119">
+        <v>18.504729999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1919,6 +2916,18 @@
       <c r="E3">
         <v>18</v>
       </c>
+      <c r="K3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4">
@@ -1936,17 +2945,20 @@
       <c r="E4">
         <v>18</v>
       </c>
-      <c r="K4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>3</v>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>3.1</v>
+      </c>
+      <c r="L4">
+        <v>3.4</v>
+      </c>
+      <c r="M4">
+        <v>2.9</v>
+      </c>
+      <c r="N4">
+        <v>3.2</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -1969,16 +2981,16 @@
         <v>16</v>
       </c>
       <c r="K5">
-        <v>19</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>3.9</v>
       </c>
       <c r="M5" s="1">
-        <v>18</v>
+        <v>3.2</v>
       </c>
       <c r="N5">
-        <v>19</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -2001,16 +3013,16 @@
         <v>32</v>
       </c>
       <c r="K6">
-        <v>18</v>
+        <v>3.4</v>
       </c>
       <c r="L6">
-        <v>18</v>
+        <v>3.7</v>
       </c>
       <c r="M6" s="1">
-        <v>17</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N6">
-        <v>18</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2033,16 +3045,16 @@
         <v>64</v>
       </c>
       <c r="K7">
-        <v>18</v>
+        <v>12.2</v>
       </c>
       <c r="L7">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="M7" s="1">
-        <v>18</v>
+        <v>11.1</v>
       </c>
       <c r="N7">
-        <v>20</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2065,16 +3077,16 @@
         <v>128</v>
       </c>
       <c r="K8">
-        <v>18</v>
+        <v>14.25</v>
       </c>
       <c r="L8">
-        <v>25</v>
+        <v>14.5</v>
       </c>
       <c r="M8" s="1">
-        <v>18</v>
+        <v>14.2</v>
       </c>
       <c r="N8">
-        <v>20</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -2097,16 +3109,16 @@
         <v>256</v>
       </c>
       <c r="K9">
-        <v>18</v>
+        <v>16.2</v>
       </c>
       <c r="L9">
-        <v>24</v>
+        <v>13.2</v>
       </c>
       <c r="M9" s="1">
-        <v>19</v>
+        <v>17.2</v>
       </c>
       <c r="N9">
-        <v>22</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -2129,16 +3141,16 @@
         <v>512</v>
       </c>
       <c r="K10">
-        <v>35</v>
+        <v>12.2</v>
       </c>
       <c r="L10">
-        <v>41</v>
+        <v>11.1</v>
       </c>
       <c r="M10" s="1">
-        <v>37</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="N10">
-        <v>39</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -2161,16 +3173,16 @@
         <v>1024</v>
       </c>
       <c r="K11">
-        <v>37</v>
+        <v>13.3</v>
       </c>
       <c r="L11">
-        <v>42</v>
+        <v>14.7</v>
       </c>
       <c r="M11" s="1">
-        <v>44</v>
+        <v>13.3</v>
       </c>
       <c r="N11">
-        <v>45</v>
+        <v>16.100000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -2193,16 +3205,16 @@
         <v>2048</v>
       </c>
       <c r="K12">
-        <v>36</v>
+        <v>14.1</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>13.7</v>
       </c>
       <c r="M12" s="1">
-        <v>40</v>
+        <v>13.2</v>
       </c>
       <c r="N12">
-        <v>44</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -2225,16 +3237,16 @@
         <v>4096</v>
       </c>
       <c r="K13">
-        <v>52</v>
+        <v>25.2</v>
       </c>
       <c r="L13">
-        <v>57</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="M13" s="1">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="N13">
-        <v>102</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -2257,16 +3269,16 @@
         <v>8192</v>
       </c>
       <c r="K14">
-        <v>63</v>
+        <v>23.2</v>
       </c>
       <c r="L14">
-        <v>68</v>
+        <v>30.1</v>
       </c>
       <c r="M14" s="1">
-        <v>99</v>
+        <v>47.6</v>
       </c>
       <c r="N14">
-        <v>131</v>
+        <v>50.2</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -2289,16 +3301,16 @@
         <v>16384</v>
       </c>
       <c r="K15">
-        <v>60</v>
+        <v>24.1</v>
       </c>
       <c r="L15">
-        <v>67</v>
+        <v>32.4</v>
       </c>
       <c r="M15" s="1">
-        <v>97</v>
+        <v>43.2</v>
       </c>
       <c r="N15">
-        <v>134</v>
+        <v>47.6</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -2321,16 +3333,16 @@
         <v>32768</v>
       </c>
       <c r="K16">
-        <v>65</v>
+        <v>23.5</v>
       </c>
       <c r="L16">
-        <v>66</v>
+        <v>33.4</v>
       </c>
       <c r="M16" s="1">
         <v>112</v>
       </c>
       <c r="N16">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -2353,16 +3365,16 @@
         <v>65536</v>
       </c>
       <c r="K17">
-        <v>71</v>
+        <v>22.1</v>
       </c>
       <c r="L17">
-        <v>75</v>
+        <v>32.1</v>
       </c>
       <c r="M17" s="1">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="N17">
-        <v>159</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -2385,16 +3397,16 @@
         <v>131072</v>
       </c>
       <c r="K18">
-        <v>62</v>
+        <v>23.2</v>
       </c>
       <c r="L18">
-        <v>78</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="M18" s="1">
         <v>115</v>
       </c>
       <c r="N18">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -2417,16 +3429,16 @@
         <v>262144</v>
       </c>
       <c r="K19">
-        <v>68</v>
+        <v>21.2</v>
       </c>
       <c r="L19">
-        <v>81</v>
+        <v>31.2</v>
       </c>
       <c r="M19" s="1">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="N19">
-        <v>161</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -2445,6 +3457,12 @@
       <c r="E20">
         <v>24</v>
       </c>
+      <c r="G20">
+        <v>0.49</v>
+      </c>
+      <c r="H20">
+        <v>1.3751949999999999</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21">
@@ -2462,6 +3480,12 @@
       <c r="E21">
         <v>19</v>
       </c>
+      <c r="G21">
+        <v>0.98</v>
+      </c>
+      <c r="H21">
+        <v>3.1526510000000001</v>
+      </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22">
@@ -2479,6 +3503,12 @@
       <c r="E22">
         <v>19</v>
       </c>
+      <c r="G22">
+        <v>1.95</v>
+      </c>
+      <c r="H22">
+        <v>4.1760580000000003</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23">
@@ -2496,6 +3526,12 @@
       <c r="E23">
         <v>23</v>
       </c>
+      <c r="G23">
+        <v>2.93</v>
+      </c>
+      <c r="H23">
+        <v>2.3091490000000001</v>
+      </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24">
@@ -2513,6 +3549,12 @@
       <c r="E24">
         <v>39</v>
       </c>
+      <c r="G24">
+        <v>3.91</v>
+      </c>
+      <c r="H24">
+        <v>4.0067279999999998</v>
+      </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25">
@@ -2530,6 +3572,12 @@
       <c r="E25">
         <v>47</v>
       </c>
+      <c r="G25">
+        <v>5.86</v>
+      </c>
+      <c r="H25">
+        <v>1.860411</v>
+      </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26">
@@ -2547,6 +3595,12 @@
       <c r="E26">
         <v>44</v>
       </c>
+      <c r="G26">
+        <v>7.81</v>
+      </c>
+      <c r="H26">
+        <v>3.6099700000000001</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27">
@@ -2564,6 +3618,12 @@
       <c r="E27">
         <v>37</v>
       </c>
+      <c r="G27">
+        <v>9.77</v>
+      </c>
+      <c r="H27">
+        <v>3.8551489999999999</v>
+      </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28">
@@ -2581,6 +3641,12 @@
       <c r="E28">
         <v>49</v>
       </c>
+      <c r="G28">
+        <v>11.72</v>
+      </c>
+      <c r="H28">
+        <v>1.748823</v>
+      </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29">
@@ -2598,6 +3664,12 @@
       <c r="E29">
         <v>37</v>
       </c>
+      <c r="G29">
+        <v>13.67</v>
+      </c>
+      <c r="H29">
+        <v>3.7463389999999999</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30">
@@ -2615,6 +3687,12 @@
       <c r="E30">
         <v>39</v>
       </c>
+      <c r="G30">
+        <v>15.62</v>
+      </c>
+      <c r="H30">
+        <v>2.4916330000000002</v>
+      </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31">
@@ -2632,6 +3710,12 @@
       <c r="E31">
         <v>18</v>
       </c>
+      <c r="G31">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="H31">
+        <v>2.0283799999999998</v>
+      </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32">
@@ -2649,8 +3733,14 @@
       <c r="E32">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32">
+        <v>19.53</v>
+      </c>
+      <c r="H32">
+        <v>2.452804</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>64</v>
       </c>
@@ -2666,8 +3756,14 @@
       <c r="E33">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33">
+        <v>21.48</v>
+      </c>
+      <c r="H33">
+        <v>3.2678509999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>128</v>
       </c>
@@ -2683,8 +3779,14 @@
       <c r="E34">
         <v>18</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34">
+        <v>23.44</v>
+      </c>
+      <c r="H34">
+        <v>2.8616799999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>256</v>
       </c>
@@ -2700,8 +3802,14 @@
       <c r="E35">
         <v>19</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35">
+        <v>25.39</v>
+      </c>
+      <c r="H35">
+        <v>3.40863</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>512</v>
       </c>
@@ -2717,8 +3825,14 @@
       <c r="E36">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36">
+        <v>27.34</v>
+      </c>
+      <c r="H36">
+        <v>1.408887</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>1024</v>
       </c>
@@ -2734,8 +3848,14 @@
       <c r="E37">
         <v>28</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37">
+        <v>29.3</v>
+      </c>
+      <c r="H37">
+        <v>1.9766159999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>2048</v>
       </c>
@@ -2751,8 +3871,14 @@
       <c r="E38">
         <v>28</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38">
+        <v>31.25</v>
+      </c>
+      <c r="H38">
+        <v>2.2537660000000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>4096</v>
       </c>
@@ -2768,8 +3894,14 @@
       <c r="E39">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39">
+        <v>35.159999999999997</v>
+      </c>
+      <c r="H39">
+        <v>8.4175360000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>8192</v>
       </c>
@@ -2785,8 +3917,14 @@
       <c r="E40">
         <v>61</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40">
+        <v>39.06</v>
+      </c>
+      <c r="H40">
+        <v>7.7647469999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>16384</v>
       </c>
@@ -2802,8 +3940,14 @@
       <c r="E41">
         <v>60</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41">
+        <v>42.97</v>
+      </c>
+      <c r="H41">
+        <v>8.4437029999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>32768</v>
       </c>
@@ -2819,8 +3963,14 @@
       <c r="E42">
         <v>62</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42">
+        <v>46.88</v>
+      </c>
+      <c r="H42">
+        <v>7.1706099999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>65536</v>
       </c>
@@ -2836,8 +3986,14 @@
       <c r="E43">
         <v>127</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43">
+        <v>50.78</v>
+      </c>
+      <c r="H43">
+        <v>8.3539399999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>131072</v>
       </c>
@@ -2853,8 +4009,14 @@
       <c r="E44">
         <v>63</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44">
+        <v>54.69</v>
+      </c>
+      <c r="H44">
+        <v>8.4312590000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>262144</v>
       </c>
@@ -2870,8 +4032,14 @@
       <c r="E45">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45">
+        <v>58.59</v>
+      </c>
+      <c r="H45">
+        <v>7.4708670000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>16</v>
       </c>
@@ -2887,8 +4055,14 @@
       <c r="E46">
         <v>19</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46">
+        <v>62.5</v>
+      </c>
+      <c r="H46">
+        <v>9.3241040000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>32</v>
       </c>
@@ -2904,8 +4078,14 @@
       <c r="E47">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47">
+        <v>70.31</v>
+      </c>
+      <c r="H47">
+        <v>7.2694929999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>64</v>
       </c>
@@ -2921,8 +4101,14 @@
       <c r="E48">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48">
+        <v>78.12</v>
+      </c>
+      <c r="H48">
+        <v>7.073969</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>128</v>
       </c>
@@ -2938,8 +4124,14 @@
       <c r="E49">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49">
+        <v>85.94</v>
+      </c>
+      <c r="H49">
+        <v>7.8177820000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>256</v>
       </c>
@@ -2955,8 +4147,14 @@
       <c r="E50">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50">
+        <v>93.75</v>
+      </c>
+      <c r="H50">
+        <v>9.0400109999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>512</v>
       </c>
@@ -2972,8 +4170,14 @@
       <c r="E51">
         <v>27</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51">
+        <v>101.56</v>
+      </c>
+      <c r="H51">
+        <v>8.1914280000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>1024</v>
       </c>
@@ -2989,8 +4193,14 @@
       <c r="E52">
         <v>28</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52">
+        <v>109.38</v>
+      </c>
+      <c r="H52">
+        <v>7.9771739999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>2048</v>
       </c>
@@ -3006,8 +4216,14 @@
       <c r="E53">
         <v>109</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53">
+        <v>117.19</v>
+      </c>
+      <c r="H53">
+        <v>7.2464510000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>4096</v>
       </c>
@@ -3023,8 +4239,14 @@
       <c r="E54">
         <v>83</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54">
+        <v>125</v>
+      </c>
+      <c r="H54">
+        <v>7.2808929999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>8192</v>
       </c>
@@ -3040,8 +4262,14 @@
       <c r="E55">
         <v>101</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55">
+        <v>140.62</v>
+      </c>
+      <c r="H55">
+        <v>8.4968599999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>16384</v>
       </c>
@@ -3057,8 +4285,14 @@
       <c r="E56">
         <v>95</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56">
+        <v>156.25</v>
+      </c>
+      <c r="H56">
+        <v>7.1672580000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>32768</v>
       </c>
@@ -3074,8 +4308,14 @@
       <c r="E57">
         <v>103</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57">
+        <v>171.88</v>
+      </c>
+      <c r="H57">
+        <v>6.6816389999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>65536</v>
       </c>
@@ -3091,8 +4331,14 @@
       <c r="E58">
         <v>102</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58">
+        <v>187.5</v>
+      </c>
+      <c r="H58">
+        <v>8.8988370000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>131072</v>
       </c>
@@ -3108,8 +4354,14 @@
       <c r="E59">
         <v>156</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59">
+        <v>203.12</v>
+      </c>
+      <c r="H59">
+        <v>7.123246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>262144</v>
       </c>
@@ -3124,6 +4376,636 @@
       </c>
       <c r="E60">
         <v>116</v>
+      </c>
+      <c r="G60">
+        <v>218.75</v>
+      </c>
+      <c r="H60">
+        <v>8.6903799999999993</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="G61">
+        <v>234.38</v>
+      </c>
+      <c r="H61">
+        <v>7.1295070000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="G62">
+        <v>250</v>
+      </c>
+      <c r="H62">
+        <v>8.4297090000000008</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="G63">
+        <v>281.25</v>
+      </c>
+      <c r="H63">
+        <v>5.6292520000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="G64">
+        <v>312.5</v>
+      </c>
+      <c r="H64">
+        <v>6.2542080000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="7:8">
+      <c r="G65">
+        <v>343.75</v>
+      </c>
+      <c r="H65">
+        <v>6.4811579999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="7:8">
+      <c r="G66">
+        <v>375</v>
+      </c>
+      <c r="H66">
+        <v>6.2351669999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="7:8">
+      <c r="G67">
+        <v>406.25</v>
+      </c>
+      <c r="H67">
+        <v>6.9807589999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="7:8">
+      <c r="G68">
+        <v>437.5</v>
+      </c>
+      <c r="H68">
+        <v>6.8721240000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="7:8">
+      <c r="G69">
+        <v>468.75</v>
+      </c>
+      <c r="H69">
+        <v>7.1703979999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="7:8">
+      <c r="G70">
+        <v>500</v>
+      </c>
+      <c r="H70">
+        <v>7.679729</v>
+      </c>
+    </row>
+    <row r="71" spans="7:8">
+      <c r="G71">
+        <v>562.5</v>
+      </c>
+      <c r="H71">
+        <v>6.1992760000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="7:8">
+      <c r="G72">
+        <v>625</v>
+      </c>
+      <c r="H72">
+        <v>6.1903589999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="7:8">
+      <c r="G73">
+        <v>687.5</v>
+      </c>
+      <c r="H73">
+        <v>5.7278770000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="7:8">
+      <c r="G74">
+        <v>750</v>
+      </c>
+      <c r="H74">
+        <v>6.4532230000000004</v>
+      </c>
+    </row>
+    <row r="75" spans="7:8">
+      <c r="G75">
+        <v>812.5</v>
+      </c>
+      <c r="H75">
+        <v>8.2119909999999994</v>
+      </c>
+    </row>
+    <row r="76" spans="7:8">
+      <c r="G76">
+        <v>875</v>
+      </c>
+      <c r="H76">
+        <v>7.922822</v>
+      </c>
+    </row>
+    <row r="77" spans="7:8">
+      <c r="G77">
+        <v>937.5</v>
+      </c>
+      <c r="H77">
+        <v>6.8243609999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="7:8">
+      <c r="G78">
+        <v>1000</v>
+      </c>
+      <c r="H78">
+        <v>7.0536440000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="7:8">
+      <c r="G79">
+        <v>1125</v>
+      </c>
+      <c r="H79">
+        <v>6.8787190000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="7:8">
+      <c r="G80">
+        <v>1250</v>
+      </c>
+      <c r="H80">
+        <v>6.2062799999999996</v>
+      </c>
+    </row>
+    <row r="81" spans="7:8">
+      <c r="G81">
+        <v>1375</v>
+      </c>
+      <c r="H81">
+        <v>8.2830600000000008</v>
+      </c>
+    </row>
+    <row r="82" spans="7:8">
+      <c r="G82">
+        <v>1500</v>
+      </c>
+      <c r="H82">
+        <v>8.5471590000000006</v>
+      </c>
+    </row>
+    <row r="83" spans="7:8">
+      <c r="G83">
+        <v>1625</v>
+      </c>
+      <c r="H83">
+        <v>7.701638</v>
+      </c>
+    </row>
+    <row r="84" spans="7:8">
+      <c r="G84">
+        <v>1750</v>
+      </c>
+      <c r="H84">
+        <v>7.3839769999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="7:8">
+      <c r="G85">
+        <v>1875</v>
+      </c>
+      <c r="H85">
+        <v>7.9433759999999998</v>
+      </c>
+    </row>
+    <row r="86" spans="7:8">
+      <c r="G86">
+        <v>2000</v>
+      </c>
+      <c r="H86">
+        <v>7.9033790000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="7:8">
+      <c r="G87">
+        <v>2250</v>
+      </c>
+      <c r="H87">
+        <v>8.4730930000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="7:8">
+      <c r="G88">
+        <v>2500</v>
+      </c>
+      <c r="H88">
+        <v>9.1617879999999996</v>
+      </c>
+    </row>
+    <row r="89" spans="7:8">
+      <c r="G89">
+        <v>2750</v>
+      </c>
+      <c r="H89">
+        <v>11.681111</v>
+      </c>
+    </row>
+    <row r="90" spans="7:8">
+      <c r="G90">
+        <v>3000</v>
+      </c>
+      <c r="H90">
+        <v>13.59197</v>
+      </c>
+    </row>
+    <row r="91" spans="7:8">
+      <c r="G91">
+        <v>3250</v>
+      </c>
+      <c r="H91">
+        <v>13.124031</v>
+      </c>
+    </row>
+    <row r="92" spans="7:8">
+      <c r="G92">
+        <v>3500</v>
+      </c>
+      <c r="H92">
+        <v>15.956087</v>
+      </c>
+    </row>
+    <row r="93" spans="7:8">
+      <c r="G93">
+        <v>3750</v>
+      </c>
+      <c r="H93">
+        <v>15.160399999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="7:8">
+      <c r="G94">
+        <v>4000</v>
+      </c>
+      <c r="H94">
+        <v>17.898727000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="7:8">
+      <c r="G95">
+        <v>4500</v>
+      </c>
+      <c r="H95">
+        <v>17.735327000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="7:8">
+      <c r="G96">
+        <v>5000</v>
+      </c>
+      <c r="H96">
+        <v>16.268920999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="7:8">
+      <c r="G97">
+        <v>5500</v>
+      </c>
+      <c r="H97">
+        <v>16.781925999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="7:8">
+      <c r="G98">
+        <v>6000</v>
+      </c>
+      <c r="H98">
+        <v>19.225736999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="7:8">
+      <c r="G99">
+        <v>6500</v>
+      </c>
+      <c r="H99">
+        <v>18.768802999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="7:8">
+      <c r="G100">
+        <v>7000</v>
+      </c>
+      <c r="H100">
+        <v>19.228263999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="7:8">
+      <c r="G101">
+        <v>7500</v>
+      </c>
+      <c r="H101">
+        <v>18.368697999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="7:8">
+      <c r="G102">
+        <v>8000</v>
+      </c>
+      <c r="H102">
+        <v>19.540762999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="7:8">
+      <c r="G103">
+        <v>9000</v>
+      </c>
+      <c r="H103">
+        <v>20.420021999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="7:8">
+      <c r="G104">
+        <v>10000</v>
+      </c>
+      <c r="H104">
+        <v>19.255495</v>
+      </c>
+    </row>
+    <row r="105" spans="7:8">
+      <c r="G105">
+        <v>11000</v>
+      </c>
+      <c r="H105">
+        <v>19.878012999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="7:8">
+      <c r="G106">
+        <v>12000</v>
+      </c>
+      <c r="H106">
+        <v>19.073170999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="7:8">
+      <c r="G107">
+        <v>13000</v>
+      </c>
+      <c r="H107">
+        <v>20.459664</v>
+      </c>
+    </row>
+    <row r="108" spans="7:8">
+      <c r="G108">
+        <v>14000</v>
+      </c>
+      <c r="H108">
+        <v>19.650703</v>
+      </c>
+    </row>
+    <row r="109" spans="7:8">
+      <c r="G109">
+        <v>15000</v>
+      </c>
+      <c r="H109">
+        <v>20.678698000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="7:8">
+      <c r="G110">
+        <v>16000</v>
+      </c>
+      <c r="H110">
+        <v>19.368105</v>
+      </c>
+    </row>
+    <row r="111" spans="7:8">
+      <c r="G111">
+        <v>18000</v>
+      </c>
+      <c r="H111">
+        <v>18.331177</v>
+      </c>
+    </row>
+    <row r="112" spans="7:8">
+      <c r="G112">
+        <v>20000</v>
+      </c>
+      <c r="H112">
+        <v>19.861694</v>
+      </c>
+    </row>
+    <row r="113" spans="7:8">
+      <c r="G113">
+        <v>22000</v>
+      </c>
+      <c r="H113">
+        <v>18.108042000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="7:8">
+      <c r="G114">
+        <v>24000</v>
+      </c>
+      <c r="H114">
+        <v>18.709800999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="7:8">
+      <c r="G115">
+        <v>26000</v>
+      </c>
+      <c r="H115">
+        <v>18.973666000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="7:8">
+      <c r="G116">
+        <v>28000</v>
+      </c>
+      <c r="H116">
+        <v>18.205137000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="7:8">
+      <c r="G117">
+        <v>30000</v>
+      </c>
+      <c r="H117">
+        <v>19.039432999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="7:8">
+      <c r="G118">
+        <v>32000</v>
+      </c>
+      <c r="H118">
+        <v>18.088453000000001</v>
+      </c>
+    </row>
+    <row r="119" spans="7:8">
+      <c r="G119">
+        <v>36000</v>
+      </c>
+      <c r="H119">
+        <v>20.208064</v>
+      </c>
+    </row>
+    <row r="120" spans="7:8">
+      <c r="G120">
+        <v>40000</v>
+      </c>
+      <c r="H120">
+        <v>18.440818</v>
+      </c>
+    </row>
+    <row r="121" spans="7:8">
+      <c r="G121">
+        <v>44000</v>
+      </c>
+      <c r="H121">
+        <v>18.974316000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="7:8">
+      <c r="G122">
+        <v>48000</v>
+      </c>
+      <c r="H122">
+        <v>19.532029999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="7:8">
+      <c r="G123">
+        <v>52000</v>
+      </c>
+      <c r="H123">
+        <v>20.322165999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="7:8">
+      <c r="G124">
+        <v>56000</v>
+      </c>
+      <c r="H124">
+        <v>19.077311999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="7:8">
+      <c r="G125">
+        <v>60000</v>
+      </c>
+      <c r="H125">
+        <v>17.966296</v>
+      </c>
+    </row>
+    <row r="126" spans="7:8">
+      <c r="G126">
+        <v>64000</v>
+      </c>
+      <c r="H126">
+        <v>19.59196</v>
+      </c>
+    </row>
+    <row r="127" spans="7:8">
+      <c r="G127">
+        <v>72000</v>
+      </c>
+      <c r="H127">
+        <v>19.494772000000001</v>
+      </c>
+    </row>
+    <row r="128" spans="7:8">
+      <c r="G128">
+        <v>80000</v>
+      </c>
+      <c r="H128">
+        <v>20.258039</v>
+      </c>
+    </row>
+    <row r="129" spans="7:8">
+      <c r="G129">
+        <v>88000</v>
+      </c>
+      <c r="H129">
+        <v>18.223828000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="7:8">
+      <c r="G130">
+        <v>96000</v>
+      </c>
+      <c r="H130">
+        <v>20.132135999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="7:8">
+      <c r="G131">
+        <v>104000</v>
+      </c>
+      <c r="H131">
+        <v>18.760611000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="7:8">
+      <c r="G132">
+        <v>112000</v>
+      </c>
+      <c r="H132">
+        <v>20.517078000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="7:8">
+      <c r="G133">
+        <v>120000</v>
+      </c>
+      <c r="H133">
+        <v>20.414114999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="7:8">
+      <c r="G134">
+        <v>128000</v>
+      </c>
+      <c r="H134">
+        <v>20.052517000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="7:8">
+      <c r="G135">
+        <v>144000</v>
+      </c>
+      <c r="H135">
+        <v>19.796050999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="7:8">
+      <c r="G136">
+        <v>160000</v>
+      </c>
+      <c r="H136">
+        <v>20.169602000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="7:8">
+      <c r="G137">
+        <v>176000</v>
+      </c>
+      <c r="H137">
+        <v>20.948115999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="7:8">
+      <c r="G138">
+        <v>192000</v>
+      </c>
+      <c r="H138">
+        <v>18.504729999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3138,12 +5020,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:D9"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3194,15 +5076,15 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <f>AVERAGE(A1:A5)</f>
-        <v>5446.2</v>
+        <f>AVERAGE(A1:A5) * 2.5</f>
+        <v>13615.5</v>
       </c>
       <c r="B6">
-        <f>AVERAGE(B1:B5)</f>
-        <v>3558.8</v>
+        <f>AVERAGE(B1:B5) * 2.5</f>
+        <v>8897</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -3225,12 +5107,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3322,8 +5204,8 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <f>AVERAGE(T1:T90)</f>
-        <v>1927761.7888888889</v>
+        <f>MEDIAN(T1:T90)</f>
+        <v>1213417.5</v>
       </c>
       <c r="Q3">
         <v>150</v>
@@ -3356,8 +5238,8 @@
         <v>4</v>
       </c>
       <c r="G4">
-        <f>AVERAGE(T91:T150)</f>
-        <v>1103.0166666666667</v>
+        <f>MEDIAN(T91:T150)</f>
+        <v>800.5</v>
       </c>
       <c r="Q4">
         <v>150</v>
@@ -3480,7 +5362,7 @@
         <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q8">
         <v>150</v>
